--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t>chassisdef_annihilator_ANH-1A.Description.Details</t>
   </si>
@@ -589,9 +589,6 @@
     <t>chassisdef_assassin_ASN-21.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Assassins are a rare mech nowadays with good firepower and armor with great speed and jumping range.  Makes are really good scout mech killer if you ask me. Dangerous to get jumped by one of these from behind no matter your size.</t>
-  </si>
-  <si>
     <t>Assassins are a rare mech nowadays with good firepower and armor with great speed and jumping range. Makes are really good scout mech killer if you ask me. Dangerous to get jumped by one of these from behind no matter your size.</t>
   </si>
   <si>
@@ -625,8 +622,8 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M3 is a heavy brawler, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
 ---
 A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M3 is a Juggernaut, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
@@ -664,8 +661,8 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
 ---
 A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
@@ -1095,9 +1092,6 @@
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1GS.YangsThoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacrificing speed on the battlefield is usually a bad idea.  The Gunslinger is still plenty fast for the confines of the Solaris arenas, and can dish out a good amount of damage with its two large lasers.</t>
   </si>
   <si>
     <t>Sacrificing speed on the battlefield is usually a bad idea. The Gunslinger is still plenty fast for the confines of the Solaris arenas, and can dish out a good amount of damage with its two large lasers.</t>
@@ -2543,8 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2851,3571 +2844,3572 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
+    <row r="25" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
+    <row r="28" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+    <row r="37" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1">
-      <c r="A46" s="4" t="s">
+    <row r="46" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1">
-      <c r="A52" s="4" t="s">
+    <row r="52" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1">
-      <c r="A55" s="4" t="s">
+    <row r="55" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1">
-      <c r="A58" s="4" t="s">
+    <row r="58" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1">
-      <c r="A61" s="4" t="s">
+    <row r="61" s="3" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1">
-      <c r="A64" s="4" t="s">
+    <row r="64" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1">
-      <c r="A67" s="4" t="s">
+    <row r="67" s="3" customFormat="1">
+      <c r="A67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" s="4" customFormat="1">
-      <c r="A69" s="4" t="s">
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" s="4" customFormat="1">
-      <c r="A70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="4" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1">
+      <c r="A75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1">
+      <c r="A76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1">
+      <c r="A78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="1">
+      <c r="A79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="1">
-      <c r="A73" s="4" t="s">
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1">
+      <c r="A88" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" s="3" customFormat="1">
+      <c r="A91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1">
+      <c r="A94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1">
+      <c r="A97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1">
+      <c r="A100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1">
+      <c r="A103" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" s="3" customFormat="1">
+      <c r="A106" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1">
+      <c r="A109" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1">
+      <c r="A112" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1">
+      <c r="A115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1">
+      <c r="A118" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1">
+      <c r="A121" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1">
+      <c r="A124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1">
+      <c r="A126" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1">
+      <c r="A127" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" s="3" customFormat="1">
+      <c r="A130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1">
+      <c r="A133" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1">
+      <c r="A136" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1">
+      <c r="A139" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" s="3" customFormat="1">
+      <c r="A142" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" s="3" customFormat="1">
+      <c r="A145" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" s="3" customFormat="1">
+      <c r="A148" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1">
+      <c r="A151" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" s="3" customFormat="1">
+      <c r="A154" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" s="3" customFormat="1">
+      <c r="A157" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="160" s="3" customFormat="1">
+      <c r="A160" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163" s="3" customFormat="1">
+      <c r="A163" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="166" s="3" customFormat="1">
+      <c r="A166" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" s="3" customFormat="1">
+      <c r="A169" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" s="3" customFormat="1">
+      <c r="A172" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" s="3" customFormat="1">
+      <c r="A175" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" s="3" customFormat="1">
+      <c r="A178" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" s="3" customFormat="1">
+      <c r="A181" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" s="3" customFormat="1">
+      <c r="A184" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="187" s="3" customFormat="1">
+      <c r="A187" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="190" s="3" customFormat="1">
+      <c r="A190" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" s="3" customFormat="1">
+      <c r="A193" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="196" s="3" customFormat="1">
+      <c r="A196" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="199" s="3" customFormat="1">
+      <c r="A199" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" s="3" customFormat="1">
+      <c r="A202" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="205" s="3" customFormat="1">
+      <c r="A205" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="208" s="3" customFormat="1">
+      <c r="A208" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="211" s="3" customFormat="1">
+      <c r="A211" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="214" s="3" customFormat="1">
+      <c r="A214" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="217" s="3" customFormat="1">
+      <c r="A217" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="220" s="3" customFormat="1">
+      <c r="A220" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="223" s="3" customFormat="1">
+      <c r="A223" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" s="3" customFormat="1">
+      <c r="A226" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="229" s="3" customFormat="1">
+      <c r="A229" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="232" s="3" customFormat="1">
+      <c r="A232" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="235" s="3" customFormat="1">
+      <c r="A235" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="238" s="3" customFormat="1">
+      <c r="A238" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="241" s="3" customFormat="1">
+      <c r="A241" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" s="3" customFormat="1">
+      <c r="A244" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" s="3" customFormat="1">
+      <c r="A245" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" s="3" customFormat="1">
+      <c r="A246" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" s="3" customFormat="1">
+      <c r="A247" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" s="3" customFormat="1">
+      <c r="A248" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" s="3" customFormat="1">
+      <c r="A249" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" s="3" customFormat="1">
+      <c r="A250" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" s="3" customFormat="1">
+      <c r="A251" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" s="3" customFormat="1">
+      <c r="A252" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" s="3" customFormat="1">
+      <c r="A253" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" s="3" customFormat="1">
+      <c r="A254" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" s="3" customFormat="1">
+      <c r="A255" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" s="3" customFormat="1">
+      <c r="A256" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="257" s="3" customFormat="1">
+      <c r="A257" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" s="3" customFormat="1">
+      <c r="A258" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" s="3" customFormat="1">
+      <c r="A259" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="260" s="3" customFormat="1">
+      <c r="A260" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="261" s="3" customFormat="1">
+      <c r="A261" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" s="3" customFormat="1">
+      <c r="A262" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" s="3" customFormat="1">
+      <c r="A263" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="264" s="3" customFormat="1">
+      <c r="A264" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="265" s="3" customFormat="1">
+      <c r="A265" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="266" s="3" customFormat="1">
+      <c r="A266" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="267" s="3" customFormat="1">
+      <c r="A267" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="268" s="3" customFormat="1">
+      <c r="A268" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C268" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="1">
-      <c r="A74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" s="4" customFormat="1">
-      <c r="A75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" s="4" customFormat="1">
-      <c r="A76" s="4" t="s">
+    </row>
+    <row r="269" s="3" customFormat="1">
+      <c r="A269" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C269" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" s="4" customFormat="1">
-      <c r="A78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" s="4" customFormat="1">
-      <c r="A79" s="4" t="s">
+    </row>
+    <row r="270" s="3" customFormat="1">
+      <c r="A270" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="C270" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" s="4" customFormat="1">
-      <c r="A82" s="4" t="s">
+    </row>
+    <row r="271" s="3" customFormat="1">
+      <c r="A271" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C271" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="1">
-      <c r="A85" s="4" t="s">
+    </row>
+    <row r="272" s="3" customFormat="1">
+      <c r="A272" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C272" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" s="4" customFormat="1">
-      <c r="A88" s="4" t="s">
+    </row>
+    <row r="273" s="3" customFormat="1">
+      <c r="A273" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C273" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" s="4" customFormat="1">
-      <c r="A91" s="4" t="s">
+    </row>
+    <row r="274" s="3" customFormat="1">
+      <c r="A274" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C274" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" s="4" customFormat="1">
-      <c r="A94" s="4" t="s">
+    </row>
+    <row r="275" s="3" customFormat="1">
+      <c r="A275" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" s="4" customFormat="1">
-      <c r="A97" s="4" t="s">
+    </row>
+    <row r="276" s="3" customFormat="1">
+      <c r="A276" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C276" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
+    </row>
+    <row r="277" s="3" customFormat="1">
+      <c r="A277" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C277" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" s="4" customFormat="1">
-      <c r="A103" s="4" t="s">
+    </row>
+    <row r="278" s="3" customFormat="1">
+      <c r="A278" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C278" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" s="4" customFormat="1">
-      <c r="A106" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" s="4" customFormat="1">
-      <c r="A109" s="4" t="s">
+    </row>
+    <row r="279" s="3" customFormat="1">
+      <c r="A279" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="280" s="3" customFormat="1">
+      <c r="A280" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="C280" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" s="4" customFormat="1">
-      <c r="A112" s="4" t="s">
+    </row>
+    <row r="281" s="3" customFormat="1">
+      <c r="A281" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C281" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" s="4" customFormat="1">
-      <c r="A115" s="4" t="s">
+    </row>
+    <row r="282" s="3" customFormat="1">
+      <c r="A282" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C282" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
+    </row>
+    <row r="283" s="3" customFormat="1">
+      <c r="A283" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C283" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C120" s="4" t="s">
+    </row>
+    <row r="284" s="3" customFormat="1">
+      <c r="A284" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="121" s="4" customFormat="1">
-      <c r="A121" s="4" t="s">
+      <c r="C284" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B123" s="3" t="s">
+    </row>
+    <row r="285" s="3" customFormat="1">
+      <c r="A285" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" s="4" customFormat="1">
-      <c r="A124" s="4" t="s">
+      <c r="C285" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="4" t="s">
+    </row>
+    <row r="286" s="3" customFormat="1">
+      <c r="A286" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="127" s="4" customFormat="1">
-      <c r="A127" s="4" t="s">
+      <c r="C286" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B129" s="3" t="s">
+    </row>
+    <row r="287" s="3" customFormat="1">
+      <c r="A287" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
+      <c r="C287" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="288" s="3" customFormat="1">
+      <c r="A288" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" s="4" customFormat="1">
-      <c r="A133" s="4" t="s">
+      <c r="C288" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B135" s="3" t="s">
+    </row>
+    <row r="289" s="3" customFormat="1">
+      <c r="A289" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="136" s="4" customFormat="1">
-      <c r="A136" s="4" t="s">
+      <c r="C289" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" s="3" t="s">
+    </row>
+    <row r="290" s="3" customFormat="1">
+      <c r="A290" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="139" s="4" customFormat="1">
-      <c r="A139" s="4" t="s">
+      <c r="C290" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B141" s="3" t="s">
+    </row>
+    <row r="291" s="3" customFormat="1">
+      <c r="A291" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" s="4" customFormat="1">
-      <c r="A142" s="4" t="s">
+      <c r="C291" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="s">
+    </row>
+    <row r="292" s="3" customFormat="1">
+      <c r="A292" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="145" s="4" customFormat="1">
-      <c r="A145" s="4" t="s">
+      <c r="C292" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B147" s="3" t="s">
+    </row>
+    <row r="293" s="3" customFormat="1">
+      <c r="A293" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" s="4" customFormat="1">
-      <c r="A148" s="4" t="s">
+      <c r="C293" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B150" s="3" t="s">
+    </row>
+    <row r="294" s="3" customFormat="1">
+      <c r="A294" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="151" s="4" customFormat="1">
-      <c r="A151" s="4" t="s">
+      <c r="C294" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="295" s="3" customFormat="1">
+      <c r="A295" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="154" s="4" customFormat="1">
-      <c r="A154" s="4" t="s">
+      <c r="C295" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B156" s="3" t="s">
+    </row>
+    <row r="296" s="3" customFormat="1">
+      <c r="A296" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="157" s="4" customFormat="1">
-      <c r="A157" s="4" t="s">
+      <c r="C296" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B159" s="3" t="s">
+    </row>
+    <row r="297" s="3" customFormat="1">
+      <c r="A297" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="160" s="4" customFormat="1">
-      <c r="A160" s="4" t="s">
+      <c r="C297" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B162" s="3" t="s">
+    </row>
+    <row r="298" s="3" customFormat="1">
+      <c r="A298" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="299" s="3" customFormat="1">
+      <c r="A299" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="300" s="3" customFormat="1">
+      <c r="A300" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="301" s="3" customFormat="1">
+      <c r="A301" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="163" s="4" customFormat="1">
-      <c r="A163" s="4" t="s">
+      <c r="C301" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="166" s="4" customFormat="1">
-      <c r="A166" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="169" s="4" customFormat="1">
-      <c r="A169" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="172" s="4" customFormat="1">
-      <c r="A172" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="175" s="4" customFormat="1">
-      <c r="A175" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="3" t="s">
+    </row>
+    <row r="302" s="3" customFormat="1">
+      <c r="A302" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="303" s="3" customFormat="1">
+      <c r="A303" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="178" s="4" customFormat="1">
-      <c r="A178" s="4" t="s">
+      <c r="C303" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B180" s="3" t="s">
+    </row>
+    <row r="304" s="3" customFormat="1">
+      <c r="A304" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="181" s="4" customFormat="1">
-      <c r="A181" s="4" t="s">
+      <c r="C304" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B183" s="3" t="s">
+    </row>
+    <row r="305" s="3" customFormat="1">
+      <c r="A305" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="184" s="4" customFormat="1">
-      <c r="A184" s="4" t="s">
+      <c r="C305" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B186" s="3" t="s">
+    </row>
+    <row r="306" s="3" customFormat="1">
+      <c r="A306" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="187" s="4" customFormat="1">
-      <c r="A187" s="4" t="s">
+      <c r="C306" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B189" s="3" t="s">
+    </row>
+    <row r="307" s="3" customFormat="1">
+      <c r="A307" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="190" s="4" customFormat="1">
-      <c r="A190" s="4" t="s">
+      <c r="C307" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B192" s="3" t="s">
+    </row>
+    <row r="308" s="3" customFormat="1">
+      <c r="A308" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="193" s="4" customFormat="1">
-      <c r="A193" s="4" t="s">
+      <c r="C308" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B195" s="3" t="s">
+    </row>
+    <row r="309" s="3" customFormat="1">
+      <c r="A309" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="196" s="4" customFormat="1">
-      <c r="A196" s="4" t="s">
+      <c r="C309" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B198" s="3" t="s">
+    </row>
+    <row r="310" s="3" customFormat="1">
+      <c r="A310" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" s="4" customFormat="1">
-      <c r="A199" s="4" t="s">
+      <c r="C310" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B201" s="3" t="s">
+    </row>
+    <row r="311" s="3" customFormat="1">
+      <c r="A311" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="202" s="4" customFormat="1">
-      <c r="A202" s="4" t="s">
+      <c r="C311" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B204" s="3" t="s">
+    </row>
+    <row r="312" s="3" customFormat="1">
+      <c r="A312" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="205" s="4" customFormat="1">
-      <c r="A205" s="4" t="s">
+      <c r="C312" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B207" s="3" t="s">
+    </row>
+    <row r="313" s="3" customFormat="1">
+      <c r="A313" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="208" s="4" customFormat="1">
-      <c r="A208" s="4" t="s">
+      <c r="C313" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B210" s="3" t="s">
+    </row>
+    <row r="314" s="3" customFormat="1">
+      <c r="A314" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="211" s="4" customFormat="1">
-      <c r="A211" s="4" t="s">
+      <c r="C314" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B213" s="3" t="s">
+    </row>
+    <row r="315" s="3" customFormat="1">
+      <c r="A315" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="214" s="4" customFormat="1">
-      <c r="A214" s="4" t="s">
+      <c r="C315" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B216" s="3" t="s">
+    </row>
+    <row r="316" s="3" customFormat="1">
+      <c r="A316" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C316" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="317" s="3" customFormat="1">
+      <c r="A317" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="217" s="4" customFormat="1">
-      <c r="A217" s="4" t="s">
+      <c r="C317" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="220" s="4" customFormat="1">
-      <c r="A220" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B222" s="3" t="s">
+    </row>
+    <row r="318" s="3" customFormat="1">
+      <c r="A318" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="223" s="4" customFormat="1">
-      <c r="A223" s="4" t="s">
+      <c r="C318" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B225" s="3" t="s">
+    </row>
+    <row r="319" s="3" customFormat="1">
+      <c r="A319" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B319" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="226" s="4" customFormat="1">
-      <c r="A226" s="4" t="s">
+      <c r="C319" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B228" s="3" t="s">
+    </row>
+    <row r="320" s="3" customFormat="1">
+      <c r="A320" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="229" s="4" customFormat="1">
-      <c r="A229" s="4" t="s">
+      <c r="C320" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B231" s="3" t="s">
+    </row>
+    <row r="321" s="3" customFormat="1">
+      <c r="A321" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="232" s="4" customFormat="1">
-      <c r="A232" s="4" t="s">
+      <c r="C321" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B234" s="3" t="s">
+    </row>
+    <row r="322" s="3" customFormat="1">
+      <c r="A322" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C234" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="235" s="4" customFormat="1">
-      <c r="A235" s="4" t="s">
+      <c r="C322" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B237" s="3" t="s">
+    </row>
+    <row r="323" s="3" customFormat="1">
+      <c r="A323" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="238" s="4" customFormat="1">
-      <c r="A238" s="4" t="s">
+      <c r="C323" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B240" s="3" t="s">
+    </row>
+    <row r="324" s="3" customFormat="1">
+      <c r="A324" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="241" s="4" customFormat="1">
-      <c r="A241" s="4" t="s">
+      <c r="C324" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="244" s="4" customFormat="1">
-      <c r="A244" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" s="4" customFormat="1">
-      <c r="A245" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" s="4" customFormat="1">
-      <c r="A246" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" s="4" customFormat="1">
-      <c r="A247" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="248" s="4" customFormat="1">
-      <c r="A248" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249" s="4" customFormat="1">
-      <c r="A249" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" s="4" customFormat="1">
-      <c r="A250" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" s="4" customFormat="1">
-      <c r="A251" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" s="4" customFormat="1">
-      <c r="A252" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="253" s="4" customFormat="1">
-      <c r="A253" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="254" s="4" customFormat="1">
-      <c r="A254" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="255" s="4" customFormat="1">
-      <c r="A255" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="256" s="4" customFormat="1">
-      <c r="A256" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="257" s="4" customFormat="1">
-      <c r="A257" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="258" s="4" customFormat="1">
-      <c r="A258" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="259" s="4" customFormat="1">
-      <c r="A259" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="260" s="4" customFormat="1">
-      <c r="A260" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="261" s="4" customFormat="1">
-      <c r="A261" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="262" s="4" customFormat="1">
-      <c r="A262" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="263" s="4" customFormat="1">
-      <c r="A263" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="264" s="4" customFormat="1">
-      <c r="A264" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="265" s="4" customFormat="1">
-      <c r="A265" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="266" s="4" customFormat="1">
-      <c r="A266" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="267" s="4" customFormat="1">
-      <c r="A267" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="268" s="4" customFormat="1">
-      <c r="A268" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="269" s="4" customFormat="1">
-      <c r="A269" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="270" s="4" customFormat="1">
-      <c r="A270" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="271" s="4" customFormat="1">
-      <c r="A271" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="272" s="4" customFormat="1">
-      <c r="A272" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="273" s="4" customFormat="1">
-      <c r="A273" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="274" s="4" customFormat="1">
-      <c r="A274" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="275" s="4" customFormat="1">
-      <c r="A275" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="276" s="4" customFormat="1">
-      <c r="A276" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="277" s="4" customFormat="1">
-      <c r="A277" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="278" s="4" customFormat="1">
-      <c r="A278" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="279" s="4" customFormat="1">
-      <c r="A279" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="280" s="4" customFormat="1">
-      <c r="A280" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="281" s="4" customFormat="1">
-      <c r="A281" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="282" s="4" customFormat="1">
-      <c r="A282" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="283" s="4" customFormat="1">
-      <c r="A283" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="284" s="4" customFormat="1">
-      <c r="A284" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="285" s="4" customFormat="1">
-      <c r="A285" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="286" s="4" customFormat="1">
-      <c r="A286" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="287" s="4" customFormat="1">
-      <c r="A287" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="288" s="4" customFormat="1">
-      <c r="A288" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="289" s="4" customFormat="1">
-      <c r="A289" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="290" s="4" customFormat="1">
-      <c r="A290" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="291" s="4" customFormat="1">
-      <c r="A291" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="292" s="4" customFormat="1">
-      <c r="A292" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="293" s="4" customFormat="1">
-      <c r="A293" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="294" s="4" customFormat="1">
-      <c r="A294" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="295" s="4" customFormat="1">
-      <c r="A295" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="296" s="4" customFormat="1">
-      <c r="A296" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="297" s="4" customFormat="1">
-      <c r="A297" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="298" s="4" customFormat="1">
-      <c r="A298" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="299" s="4" customFormat="1">
-      <c r="A299" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="300" s="4" customFormat="1">
-      <c r="A300" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="301" s="4" customFormat="1">
-      <c r="A301" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="302" s="4" customFormat="1">
-      <c r="A302" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="303" s="4" customFormat="1">
-      <c r="A303" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="304" s="4" customFormat="1">
-      <c r="A304" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="305" s="4" customFormat="1">
-      <c r="A305" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="306" s="4" customFormat="1">
-      <c r="A306" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="307" s="4" customFormat="1">
-      <c r="A307" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="308" s="4" customFormat="1">
-      <c r="A308" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="309" s="4" customFormat="1">
-      <c r="A309" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="310" s="4" customFormat="1">
-      <c r="A310" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="311" s="4" customFormat="1">
-      <c r="A311" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="312" s="4" customFormat="1">
-      <c r="A312" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="313" s="4" customFormat="1">
-      <c r="A313" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="314" s="4" customFormat="1">
-      <c r="A314" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="315" s="4" customFormat="1">
-      <c r="A315" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="316" s="4" customFormat="1">
-      <c r="A316" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="317" s="4" customFormat="1">
-      <c r="A317" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="318" s="4" customFormat="1">
-      <c r="A318" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="319" s="4" customFormat="1">
-      <c r="A319" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="320" s="4" customFormat="1">
-      <c r="A320" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="321" s="4" customFormat="1">
-      <c r="A321" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="322" s="4" customFormat="1">
-      <c r="A322" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="323" s="4" customFormat="1">
-      <c r="A323" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="324" s="4" customFormat="1">
-      <c r="A324" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
   <si>
     <t>chassisdef_annihilator_ANH-1A.Description.Details</t>
   </si>
@@ -589,6 +589,9 @@
     <t>chassisdef_assassin_ASN-21.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">Assassins are a rare mech nowadays with good firepower and armor with great speed and jumping range.  Makes are really good scout mech killer if you ask me. Dangerous to get jumped by one of these from behind no matter your size.</t>
+  </si>
+  <si>
     <t>Assassins are a rare mech nowadays with good firepower and armor with great speed and jumping range. Makes are really good scout mech killer if you ask me. Dangerous to get jumped by one of these from behind no matter your size.</t>
   </si>
   <si>
@@ -622,8 +625,8 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M3 is a heavy brawler, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
 ---
 A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M3 is a Juggernaut, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
@@ -661,8 +664,8 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
 ---
 A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
@@ -1092,6 +1095,9 @@
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1GS.YangsThoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacrificing speed on the battlefield is usually a bad idea.  The Gunslinger is still plenty fast for the confines of the Solaris arenas, and can dish out a good amount of damage with its two large lasers.</t>
   </si>
   <si>
     <t>Sacrificing speed on the battlefield is usually a bad idea. The Gunslinger is still plenty fast for the confines of the Solaris arenas, and can dish out a good amount of damage with its two large lasers.</t>
@@ -2537,7 +2543,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2844,3572 +2851,3571 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" s="4" customFormat="1">
+      <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
+    <row r="49" s="4" customFormat="1">
+      <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1">
-      <c r="A52" s="3" t="s">
+    <row r="52" s="4" customFormat="1">
+      <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1">
-      <c r="A58" s="3" t="s">
+    <row r="58" s="4" customFormat="1">
+      <c r="A58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="4" customFormat="1">
+      <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" s="3" customFormat="1">
-      <c r="A64" s="3" t="s">
+    <row r="64" s="4" customFormat="1">
+      <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" s="4" customFormat="1">
+      <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
+    <row r="69" s="4" customFormat="1">
+      <c r="A69" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1">
-      <c r="A70" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="70" s="4" customFormat="1">
+      <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C70" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1">
+      <c r="A73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1">
+      <c r="A74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1">
+      <c r="A75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1">
+      <c r="A76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1">
+      <c r="A78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1">
+      <c r="A79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1">
+      <c r="A82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1">
+      <c r="A85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1">
+      <c r="A88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1">
+      <c r="A91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1">
+      <c r="A94" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1">
+      <c r="A97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1">
+      <c r="A103" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1">
+      <c r="A106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" s="4" customFormat="1">
+      <c r="A112" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" s="4" customFormat="1">
+      <c r="A115" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" s="4" customFormat="1">
+      <c r="A118" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" s="4" customFormat="1">
+      <c r="A120" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" s="4" customFormat="1">
+      <c r="A121" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" s="4" customFormat="1">
+      <c r="A127" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" s="4" customFormat="1">
+      <c r="A133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" s="4" customFormat="1">
+      <c r="A136" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" s="4" customFormat="1">
+      <c r="A139" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" s="4" customFormat="1">
+      <c r="A142" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" s="4" customFormat="1">
+      <c r="A145" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" s="4" customFormat="1">
+      <c r="A148" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" s="4" customFormat="1">
+      <c r="A151" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" s="4" customFormat="1">
+      <c r="A154" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" s="4" customFormat="1">
+      <c r="A157" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" s="4" customFormat="1">
+      <c r="A160" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" s="4" customFormat="1">
+      <c r="A163" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="166" s="4" customFormat="1">
+      <c r="A166" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1">
+      <c r="A169" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" s="4" customFormat="1">
+      <c r="A172" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="1">
+      <c r="A175" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1">
+      <c r="A178" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1">
+      <c r="A181" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" s="4" customFormat="1">
+      <c r="A184" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1">
+      <c r="A187" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" s="4" customFormat="1">
+      <c r="A190" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" s="4" customFormat="1">
+      <c r="A193" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="196" s="4" customFormat="1">
+      <c r="A196" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="199" s="4" customFormat="1">
+      <c r="A199" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" s="4" customFormat="1">
+      <c r="A202" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="205" s="4" customFormat="1">
+      <c r="A205" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="208" s="4" customFormat="1">
+      <c r="A208" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="211" s="4" customFormat="1">
+      <c r="A211" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="214" s="4" customFormat="1">
+      <c r="A214" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="217" s="4" customFormat="1">
+      <c r="A217" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" s="4" customFormat="1">
+      <c r="A220" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="223" s="4" customFormat="1">
+      <c r="A223" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="226" s="4" customFormat="1">
+      <c r="A226" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="229" s="4" customFormat="1">
+      <c r="A229" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="232" s="4" customFormat="1">
+      <c r="A232" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="235" s="4" customFormat="1">
+      <c r="A235" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="238" s="4" customFormat="1">
+      <c r="A238" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="241" s="4" customFormat="1">
+      <c r="A241" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="244" s="4" customFormat="1">
+      <c r="A244" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" s="4" customFormat="1">
+      <c r="A245" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" s="4" customFormat="1">
+      <c r="A246" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" s="4" customFormat="1">
+      <c r="A247" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="248" s="4" customFormat="1">
+      <c r="A248" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" s="4" customFormat="1">
+      <c r="A249" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" s="4" customFormat="1">
+      <c r="A250" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" s="4" customFormat="1">
+      <c r="A251" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" s="4" customFormat="1">
+      <c r="A252" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" s="4" customFormat="1">
+      <c r="A253" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" s="4" customFormat="1">
+      <c r="A254" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" s="4" customFormat="1">
+      <c r="A255" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" s="4" customFormat="1">
+      <c r="A256" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="257" s="4" customFormat="1">
+      <c r="A257" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" s="4" customFormat="1">
+      <c r="A258" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" s="4" customFormat="1">
+      <c r="A259" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="260" s="4" customFormat="1">
+      <c r="A260" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="261" s="4" customFormat="1">
+      <c r="A261" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" s="4" customFormat="1">
+      <c r="A262" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" s="4" customFormat="1">
+      <c r="A263" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="264" s="4" customFormat="1">
+      <c r="A264" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="265" s="4" customFormat="1">
+      <c r="A265" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="266" s="4" customFormat="1">
+      <c r="A266" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="267" s="4" customFormat="1">
+      <c r="A267" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="268" s="4" customFormat="1">
+      <c r="A268" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" s="3" customFormat="1">
-      <c r="A74" s="3" t="s">
+      <c r="C268" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="1">
-      <c r="A75" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" s="3" customFormat="1">
-      <c r="A76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="269" s="4" customFormat="1">
+      <c r="A269" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="C269" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" s="3" customFormat="1">
-      <c r="A78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" s="3" customFormat="1">
-      <c r="A79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="270" s="4" customFormat="1">
+      <c r="A270" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="C270" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1">
-      <c r="A82" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="271" s="4" customFormat="1">
+      <c r="A271" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="C271" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1">
-      <c r="A85" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="272" s="4" customFormat="1">
+      <c r="A272" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="C272" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" s="3" customFormat="1">
-      <c r="A88" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="3" t="s">
+    </row>
+    <row r="273" s="4" customFormat="1">
+      <c r="A273" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="C273" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" s="3" customFormat="1">
-      <c r="A91" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="3" t="s">
+    </row>
+    <row r="274" s="4" customFormat="1">
+      <c r="A274" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" s="3" customFormat="1">
-      <c r="A94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="275" s="4" customFormat="1">
+      <c r="A275" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="C275" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" s="3" customFormat="1">
-      <c r="A97" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="3" t="s">
+    </row>
+    <row r="276" s="4" customFormat="1">
+      <c r="A276" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="C276" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" s="3" customFormat="1">
-      <c r="A100" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="3" t="s">
+    </row>
+    <row r="277" s="4" customFormat="1">
+      <c r="A277" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="C277" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="1">
-      <c r="A103" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="278" s="4" customFormat="1">
+      <c r="A278" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="C278" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" s="3" customFormat="1">
-      <c r="A106" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1">
-      <c r="A109" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="3" t="s">
+    </row>
+    <row r="279" s="4" customFormat="1">
+      <c r="A279" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="280" s="4" customFormat="1">
+      <c r="A280" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
+      <c r="C280" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1">
-      <c r="A112" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="3" t="s">
+    </row>
+    <row r="281" s="4" customFormat="1">
+      <c r="A281" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
+      <c r="C281" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" s="3" customFormat="1">
-      <c r="A115" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C115" s="3" t="s">
+    </row>
+    <row r="282" s="4" customFormat="1">
+      <c r="A282" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="C282" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" s="3" customFormat="1">
-      <c r="A118" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C118" s="3" t="s">
+    </row>
+    <row r="283" s="4" customFormat="1">
+      <c r="A283" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="C283" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" s="3" customFormat="1">
-      <c r="A121" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
+    </row>
+    <row r="284" s="4" customFormat="1">
+      <c r="A284" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
+      <c r="C284" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" s="3" customFormat="1">
-      <c r="A124" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
+    </row>
+    <row r="285" s="4" customFormat="1">
+      <c r="A285" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" s="3" customFormat="1">
-      <c r="A126" s="3" t="s">
+      <c r="C285" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" s="3" customFormat="1">
-      <c r="A127" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
+    </row>
+    <row r="286" s="4" customFormat="1">
+      <c r="A286" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
+      <c r="C286" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" s="3" customFormat="1">
-      <c r="A130" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
+    </row>
+    <row r="287" s="4" customFormat="1">
+      <c r="A287" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
+      <c r="C287" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" s="3" customFormat="1">
-      <c r="A133" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
+    </row>
+    <row r="288" s="4" customFormat="1">
+      <c r="A288" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
+      <c r="C288" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" s="3" customFormat="1">
-      <c r="A136" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
+    </row>
+    <row r="289" s="4" customFormat="1">
+      <c r="A289" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
+      <c r="C289" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" s="3" customFormat="1">
-      <c r="A139" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
+    </row>
+    <row r="290" s="4" customFormat="1">
+      <c r="A290" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
+      <c r="C290" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="142" s="3" customFormat="1">
-      <c r="A142" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
+    </row>
+    <row r="291" s="4" customFormat="1">
+      <c r="A291" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="s">
+      <c r="C291" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" s="3" customFormat="1">
-      <c r="A145" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="s">
+    </row>
+    <row r="292" s="4" customFormat="1">
+      <c r="A292" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
+      <c r="C292" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="148" s="3" customFormat="1">
-      <c r="A148" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
+    </row>
+    <row r="293" s="4" customFormat="1">
+      <c r="A293" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
+      <c r="C293" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="151" s="3" customFormat="1">
-      <c r="A151" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
+    </row>
+    <row r="294" s="4" customFormat="1">
+      <c r="A294" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C294" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="154" s="3" customFormat="1">
-      <c r="A154" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
+    </row>
+    <row r="295" s="4" customFormat="1">
+      <c r="A295" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C295" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="157" s="3" customFormat="1">
-      <c r="A157" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
+    </row>
+    <row r="296" s="4" customFormat="1">
+      <c r="A296" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C296" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="160" s="3" customFormat="1">
-      <c r="A160" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
+    </row>
+    <row r="297" s="4" customFormat="1">
+      <c r="A297" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
+      <c r="C297" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="163" s="3" customFormat="1">
-      <c r="A163" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
+    </row>
+    <row r="298" s="4" customFormat="1">
+      <c r="A298" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="299" s="4" customFormat="1">
+      <c r="A299" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="300" s="4" customFormat="1">
+      <c r="A300" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="301" s="4" customFormat="1">
+      <c r="A301" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
+      <c r="C301" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="166" s="3" customFormat="1">
-      <c r="A166" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" s="3" customFormat="1">
-      <c r="A169" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="172" s="3" customFormat="1">
-      <c r="A172" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="175" s="3" customFormat="1">
-      <c r="A175" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" s="3" customFormat="1">
-      <c r="A178" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
+    </row>
+    <row r="302" s="4" customFormat="1">
+      <c r="A302" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="303" s="4" customFormat="1">
+      <c r="A303" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
+      <c r="C303" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="181" s="3" customFormat="1">
-      <c r="A181" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
+    </row>
+    <row r="304" s="4" customFormat="1">
+      <c r="A304" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
+      <c r="C304" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="184" s="3" customFormat="1">
-      <c r="A184" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
+    </row>
+    <row r="305" s="4" customFormat="1">
+      <c r="A305" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
+      <c r="C305" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="187" s="3" customFormat="1">
-      <c r="A187" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
+    </row>
+    <row r="306" s="4" customFormat="1">
+      <c r="A306" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C306" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="190" s="3" customFormat="1">
-      <c r="A190" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
+    </row>
+    <row r="307" s="4" customFormat="1">
+      <c r="A307" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C307" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="193" s="3" customFormat="1">
-      <c r="A193" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
+    </row>
+    <row r="308" s="4" customFormat="1">
+      <c r="A308" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C308" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="196" s="3" customFormat="1">
-      <c r="A196" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
+    </row>
+    <row r="309" s="4" customFormat="1">
+      <c r="A309" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B309" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
+      <c r="C309" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="199" s="3" customFormat="1">
-      <c r="A199" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
+    </row>
+    <row r="310" s="4" customFormat="1">
+      <c r="A310" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
+      <c r="C310" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="202" s="3" customFormat="1">
-      <c r="A202" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
+    </row>
+    <row r="311" s="4" customFormat="1">
+      <c r="A311" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B311" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
+      <c r="C311" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="205" s="3" customFormat="1">
-      <c r="A205" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
+    </row>
+    <row r="312" s="4" customFormat="1">
+      <c r="A312" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
+      <c r="C312" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="208" s="3" customFormat="1">
-      <c r="A208" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
+    </row>
+    <row r="313" s="4" customFormat="1">
+      <c r="A313" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C313" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="211" s="3" customFormat="1">
-      <c r="A211" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
+    </row>
+    <row r="314" s="4" customFormat="1">
+      <c r="A314" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C314" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="214" s="3" customFormat="1">
-      <c r="A214" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
+    </row>
+    <row r="315" s="4" customFormat="1">
+      <c r="A315" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
+      <c r="C315" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="217" s="3" customFormat="1">
-      <c r="A217" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
+    </row>
+    <row r="316" s="4" customFormat="1">
+      <c r="A316" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
+      <c r="C316" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="220" s="3" customFormat="1">
-      <c r="A220" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="223" s="3" customFormat="1">
-      <c r="A223" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
+    </row>
+    <row r="317" s="4" customFormat="1">
+      <c r="A317" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="318" s="4" customFormat="1">
+      <c r="A318" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C318" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="226" s="3" customFormat="1">
-      <c r="A226" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
+    </row>
+    <row r="319" s="4" customFormat="1">
+      <c r="A319" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C319" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="229" s="3" customFormat="1">
-      <c r="A229" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
+    </row>
+    <row r="320" s="4" customFormat="1">
+      <c r="A320" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C320" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="232" s="3" customFormat="1">
-      <c r="A232" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
+    </row>
+    <row r="321" s="4" customFormat="1">
+      <c r="A321" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B321" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
+      <c r="C321" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="235" s="3" customFormat="1">
-      <c r="A235" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
+    </row>
+    <row r="322" s="4" customFormat="1">
+      <c r="A322" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C322" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="238" s="3" customFormat="1">
-      <c r="A238" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
+    </row>
+    <row r="323" s="4" customFormat="1">
+      <c r="A323" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="C323" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="241" s="3" customFormat="1">
-      <c r="A241" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
+    </row>
+    <row r="324" s="4" customFormat="1">
+      <c r="A324" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="C324" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="244" s="3" customFormat="1">
-      <c r="A244" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" s="3" customFormat="1">
-      <c r="A245" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" s="3" customFormat="1">
-      <c r="A246" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" s="3" customFormat="1">
-      <c r="A247" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="248" s="3" customFormat="1">
-      <c r="A248" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249" s="3" customFormat="1">
-      <c r="A249" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" s="3" customFormat="1">
-      <c r="A250" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" s="3" customFormat="1">
-      <c r="A251" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" s="3" customFormat="1">
-      <c r="A252" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="253" s="3" customFormat="1">
-      <c r="A253" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="254" s="3" customFormat="1">
-      <c r="A254" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="255" s="3" customFormat="1">
-      <c r="A255" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="256" s="3" customFormat="1">
-      <c r="A256" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="257" s="3" customFormat="1">
-      <c r="A257" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="258" s="3" customFormat="1">
-      <c r="A258" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="259" s="3" customFormat="1">
-      <c r="A259" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="260" s="3" customFormat="1">
-      <c r="A260" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="261" s="3" customFormat="1">
-      <c r="A261" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="262" s="3" customFormat="1">
-      <c r="A262" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="263" s="3" customFormat="1">
-      <c r="A263" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="264" s="3" customFormat="1">
-      <c r="A264" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="265" s="3" customFormat="1">
-      <c r="A265" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="266" s="3" customFormat="1">
-      <c r="A266" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="267" s="3" customFormat="1">
-      <c r="A267" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="268" s="3" customFormat="1">
-      <c r="A268" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="269" s="3" customFormat="1">
-      <c r="A269" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="270" s="3" customFormat="1">
-      <c r="A270" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="271" s="3" customFormat="1">
-      <c r="A271" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="272" s="3" customFormat="1">
-      <c r="A272" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="273" s="3" customFormat="1">
-      <c r="A273" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="274" s="3" customFormat="1">
-      <c r="A274" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="275" s="3" customFormat="1">
-      <c r="A275" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="276" s="3" customFormat="1">
-      <c r="A276" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="277" s="3" customFormat="1">
-      <c r="A277" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="278" s="3" customFormat="1">
-      <c r="A278" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="279" s="3" customFormat="1">
-      <c r="A279" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="280" s="3" customFormat="1">
-      <c r="A280" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="281" s="3" customFormat="1">
-      <c r="A281" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="282" s="3" customFormat="1">
-      <c r="A282" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="283" s="3" customFormat="1">
-      <c r="A283" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="284" s="3" customFormat="1">
-      <c r="A284" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="285" s="3" customFormat="1">
-      <c r="A285" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="286" s="3" customFormat="1">
-      <c r="A286" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="287" s="3" customFormat="1">
-      <c r="A287" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="288" s="3" customFormat="1">
-      <c r="A288" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289" s="3" customFormat="1">
-      <c r="A289" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="290" s="3" customFormat="1">
-      <c r="A290" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="291" s="3" customFormat="1">
-      <c r="A291" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="292" s="3" customFormat="1">
-      <c r="A292" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="293" s="3" customFormat="1">
-      <c r="A293" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="294" s="3" customFormat="1">
-      <c r="A294" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="295" s="3" customFormat="1">
-      <c r="A295" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="296" s="3" customFormat="1">
-      <c r="A296" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="297" s="3" customFormat="1">
-      <c r="A297" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="298" s="3" customFormat="1">
-      <c r="A298" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="299" s="3" customFormat="1">
-      <c r="A299" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="300" s="3" customFormat="1">
-      <c r="A300" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="301" s="3" customFormat="1">
-      <c r="A301" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="302" s="3" customFormat="1">
-      <c r="A302" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="303" s="3" customFormat="1">
-      <c r="A303" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="304" s="3" customFormat="1">
-      <c r="A304" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="305" s="3" customFormat="1">
-      <c r="A305" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="306" s="3" customFormat="1">
-      <c r="A306" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="307" s="3" customFormat="1">
-      <c r="A307" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="308" s="3" customFormat="1">
-      <c r="A308" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="309" s="3" customFormat="1">
-      <c r="A309" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="310" s="3" customFormat="1">
-      <c r="A310" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="311" s="3" customFormat="1">
-      <c r="A311" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="312" s="3" customFormat="1">
-      <c r="A312" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="313" s="3" customFormat="1">
-      <c r="A313" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="314" s="3" customFormat="1">
-      <c r="A314" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="315" s="3" customFormat="1">
-      <c r="A315" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="316" s="3" customFormat="1">
-      <c r="A316" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="317" s="3" customFormat="1">
-      <c r="A317" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="318" s="3" customFormat="1">
-      <c r="A318" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="319" s="3" customFormat="1">
-      <c r="A319" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="320" s="3" customFormat="1">
-      <c r="A320" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="321" s="3" customFormat="1">
-      <c r="A321" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="322" s="3" customFormat="1">
-      <c r="A322" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="323" s="3" customFormat="1">
-      <c r="A323" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="324" s="3" customFormat="1">
-      <c r="A324" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -2247,7 +2247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2553,5626 +2554,5626 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="77.28515625" customWidth="1" style="1"/>
+    <col min="1" max="3" width="77.28515625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="D89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="D91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1">
+      <c r="D92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2">
         <v>93</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
+      <c r="D94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1">
+      <c r="D95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="1">
+      <c r="D97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1">
+      <c r="D98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1">
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="1">
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="D102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="1">
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
         <v>103</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1">
+      <c r="D104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1">
+      <c r="D105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1">
+      <c r="D107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1">
+      <c r="D108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2">
         <v>108</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="D109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="D110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1">
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="1">
+      <c r="D112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1">
+      <c r="D113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2">
         <v>113</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="D114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2">
         <v>114</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1">
+      <c r="D115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
         <v>115</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1">
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2">
         <v>116</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1">
+      <c r="D117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2">
         <v>117</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="D118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="1">
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2">
         <v>119</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="1">
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="1">
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
         <v>121</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1">
+      <c r="D123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="1">
+      <c r="D125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2">
         <v>125</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="1">
+      <c r="D126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2">
         <v>126</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1">
+      <c r="D127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="1">
+      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" s="1">
+      <c r="D129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2">
         <v>129</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1">
+      <c r="D130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" s="1">
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
         <v>131</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" s="1">
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2">
         <v>132</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="1">
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
         <v>133</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="1">
+      <c r="D134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="1">
+      <c r="D135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2">
         <v>135</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="1">
+      <c r="D136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
         <v>136</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="1">
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1">
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139" s="1">
+      <c r="D139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2">
         <v>139</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="1">
+      <c r="D140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141" s="1">
+      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
         <v>141</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="D142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143" s="1">
+      <c r="D143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144" s="1">
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2">
         <v>144</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="1">
+      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2">
         <v>145</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="1">
+      <c r="D146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2">
         <v>146</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1">
+      <c r="D147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2">
         <v>147</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="D148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2">
         <v>148</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="1">
+      <c r="D149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="2">
         <v>149</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1">
+      <c r="D150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" s="1">
+      <c r="D151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="D152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2">
         <v>152</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" s="1">
+      <c r="D153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="1">
+      <c r="D154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2">
         <v>154</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="D155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2">
         <v>155</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="1">
+      <c r="D156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="1">
+      <c r="D157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2">
         <v>157</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E159" s="1">
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2">
         <v>159</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="D160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1">
+      <c r="D161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E162" s="1">
+      <c r="D162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2">
         <v>162</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E163" s="1">
+      <c r="D163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E164" s="1">
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2">
         <v>164</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E165" s="1">
+      <c r="D165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="2">
         <v>165</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E166" s="1">
+      <c r="D166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="2">
         <v>166</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167" s="1">
+      <c r="D167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2">
         <v>167</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="2">
         <v>168</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="2">
         <v>169</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="1">
+      <c r="D170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="2">
         <v>170</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="1">
+      <c r="D171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2">
         <v>171</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2">
         <v>172</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1">
+      <c r="D173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="1">
+      <c r="D174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2">
         <v>174</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E175" s="1">
+      <c r="D175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" s="1">
+      <c r="D176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="2">
         <v>176</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177" s="1">
+      <c r="D177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="2">
         <v>177</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178" s="1">
+      <c r="D178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2">
         <v>178</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" s="1">
+      <c r="D179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2">
         <v>179</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="D180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E181" s="1">
+      <c r="D181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="2">
         <v>181</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" s="1">
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2">
         <v>182</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183" s="1">
+      <c r="D183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2">
         <v>183</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="1">
+      <c r="D184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="2">
         <v>184</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" s="1">
+      <c r="D185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2">
         <v>185</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" s="1">
+      <c r="D186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" s="2">
         <v>186</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="1">
+      <c r="D187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" s="2">
         <v>187</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="2">
         <v>188</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="D189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" s="2">
         <v>189</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" s="1">
+      <c r="D190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" s="2">
         <v>191</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1">
+      <c r="D192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2">
         <v>192</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1">
+      <c r="D193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2">
         <v>193</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="2">
         <v>194</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="1">
+      <c r="D195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="1">
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="2">
         <v>196</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1">
+      <c r="D197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" s="2">
         <v>197</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="1">
+      <c r="D198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="2">
         <v>198</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1">
+      <c r="D199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="2">
         <v>199</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E200" s="1">
+      <c r="D200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E201" s="1">
+      <c r="D201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2">
         <v>201</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E202" s="1">
+      <c r="D202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="2">
         <v>202</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E203" s="1">
+      <c r="D203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" s="2">
         <v>203</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1">
+      <c r="D204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" s="2">
         <v>204</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E205" s="1">
+      <c r="D205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="1">
+      <c r="D206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="2">
         <v>206</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="1">
+      <c r="D207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="2">
         <v>207</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="1">
+      <c r="D208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" s="2">
         <v>208</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="1">
+      <c r="D209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" s="2">
         <v>209</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="1">
+      <c r="D210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2">
         <v>210</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="1">
+      <c r="D211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" s="2">
         <v>211</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" s="1">
+      <c r="D212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="1">
+      <c r="D213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2">
         <v>213</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" s="1">
+      <c r="D214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="1">
+      <c r="D215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="1">
+      <c r="D216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="1">
+      <c r="D217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="2">
         <v>217</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="1">
+      <c r="D218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="1">
+      <c r="D219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" s="2">
         <v>219</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="1">
+      <c r="D220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="2">
         <v>220</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" s="1">
+      <c r="D221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="1">
+      <c r="D222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="2">
         <v>222</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="1">
+      <c r="D223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2">
         <v>223</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="1">
+      <c r="D224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="1">
+      <c r="D225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="2">
         <v>225</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="1">
+      <c r="D226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="2">
         <v>226</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227" s="1">
+      <c r="D227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="2">
         <v>227</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="1">
+      <c r="D228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="1">
+      <c r="D229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="2">
         <v>229</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="1">
+      <c r="D230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2">
         <v>230</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231" s="1">
+      <c r="D231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="2">
         <v>231</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" s="1">
+      <c r="D232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="2">
         <v>232</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="1">
+      <c r="D233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="2">
         <v>233</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" s="1">
+      <c r="D234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="2">
         <v>234</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="1">
+      <c r="D235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="2">
         <v>235</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="1">
+      <c r="D236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="1">
+      <c r="D237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="2">
         <v>237</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="1">
+      <c r="D238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="2">
         <v>238</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" s="1">
+      <c r="D239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" s="2">
         <v>239</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" s="1">
+      <c r="D240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="D241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" s="2">
         <v>241</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="1">
+      <c r="D242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="2">
         <v>242</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="1">
+      <c r="D243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" s="2">
         <v>243</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E244" s="1">
+      <c r="D244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244" s="2">
         <v>244</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E245" s="1">
+      <c r="D245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="2">
         <v>245</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="1">
+      <c r="D246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="2">
         <v>246</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="1">
+      <c r="D247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E248" s="1">
+      <c r="D248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="2">
         <v>248</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="1">
+      <c r="D249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="2">
         <v>249</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="1">
+      <c r="D250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" s="1">
+      <c r="D251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E252" s="1">
+      <c r="D252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="2">
         <v>252</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E253" s="1">
+      <c r="D253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" s="1">
+      <c r="D254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="2">
         <v>254</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" s="1">
+      <c r="D255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="2">
         <v>255</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" s="1">
+      <c r="D256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" s="1">
+      <c r="D257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="2">
         <v>257</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" s="1">
+      <c r="D258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2">
         <v>258</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" s="1">
+      <c r="D259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="2">
         <v>259</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" s="1">
+      <c r="D260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="2">
         <v>260</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" s="1">
+      <c r="D261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="2">
         <v>261</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="1">
+      <c r="D262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="2">
         <v>262</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" s="1">
+      <c r="D263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2">
         <v>263</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="1">
+      <c r="D264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="2">
         <v>264</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="1">
+      <c r="D265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="2">
         <v>265</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="1">
+      <c r="D266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="2">
         <v>266</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" s="1">
+      <c r="D267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="2">
         <v>267</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="1">
+      <c r="D268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="2">
         <v>268</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="1">
+      <c r="D269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="2">
         <v>269</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E270" s="1">
+      <c r="D270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="2">
         <v>270</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271" s="1">
+      <c r="D271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="2">
         <v>271</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E272" s="1">
+      <c r="D272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="2">
         <v>272</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="1">
+      <c r="D273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="2">
         <v>273</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="1">
+      <c r="D274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="2">
         <v>274</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E275" s="1">
+      <c r="D275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" s="2">
         <v>275</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E276" s="1">
+      <c r="D276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="2">
         <v>276</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="1">
+      <c r="D277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="2">
         <v>277</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E278" s="1">
+      <c r="D278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="2">
         <v>278</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E279" s="1">
+      <c r="D279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="2">
         <v>279</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" s="1">
+      <c r="D280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" s="2">
         <v>280</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E281" s="1">
+      <c r="D281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" s="2">
         <v>281</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E282" s="1">
+      <c r="D282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E282" s="2">
         <v>282</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E283" s="1">
+      <c r="D283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E283" s="2">
         <v>283</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E284" s="1">
+      <c r="D284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E284" s="2">
         <v>284</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E285" s="1">
+      <c r="D285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285" s="2">
         <v>285</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286" s="1">
+      <c r="D286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" s="2">
         <v>286</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E287" s="1">
+      <c r="D287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" s="2">
         <v>287</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E288" s="1">
+      <c r="D288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288" s="2">
         <v>288</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289" s="1">
+      <c r="D289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289" s="2">
         <v>289</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E290" s="1">
+      <c r="D290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E290" s="2">
         <v>290</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E291" s="1">
+      <c r="D291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E291" s="2">
         <v>291</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E292" s="1">
+      <c r="D292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E292" s="2">
         <v>292</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E293" s="1">
+      <c r="D293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E293" s="2">
         <v>293</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E294" s="1">
+      <c r="D294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" s="2">
         <v>294</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E295" s="1">
+      <c r="D295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E295" s="2">
         <v>295</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E296" s="1">
+      <c r="D296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" s="2">
         <v>296</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E297" s="1">
+      <c r="D297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E297" s="2">
         <v>297</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E298" s="1">
+      <c r="D298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E298" s="2">
         <v>298</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E299" s="1">
+      <c r="D299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" s="2">
         <v>299</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E300" s="1">
+      <c r="D300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E300" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E301" s="1">
+      <c r="D301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E301" s="2">
         <v>301</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E302" s="1">
+      <c r="D302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="2">
         <v>302</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" s="1">
+      <c r="D303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" s="2">
         <v>303</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E304" s="1">
+      <c r="D304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E304" s="2">
         <v>304</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E305" s="1">
+      <c r="D305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" s="2">
         <v>305</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E306" s="1">
+      <c r="D306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E306" s="2">
         <v>306</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E307" s="1">
+      <c r="D307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="2">
         <v>307</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E308" s="1">
+      <c r="D308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" s="2">
         <v>308</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E309" s="1">
+      <c r="D309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" s="2">
         <v>309</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E310" s="1">
+      <c r="D310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" s="2">
         <v>310</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E311" s="1">
+      <c r="D311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" s="2">
         <v>311</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E312" s="1">
+      <c r="D312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E312" s="2">
         <v>312</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E313" s="1">
+      <c r="D313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E313" s="2">
         <v>313</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E314" s="1">
+      <c r="D314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E315" s="1">
+      <c r="D315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E315" s="2">
         <v>315</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E316" s="1">
+      <c r="D316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E316" s="2">
         <v>316</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E317" s="1">
+      <c r="D317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E317" s="2">
         <v>317</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E318" s="1">
+      <c r="D318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E318" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E319" s="1">
+      <c r="D319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E319" s="2">
         <v>319</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E320" s="1">
+      <c r="D320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" s="2">
         <v>320</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E321" s="1">
+      <c r="D321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E321" s="2">
         <v>321</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E322" s="1">
+      <c r="D322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E322" s="2">
         <v>322</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E323" s="1">
+      <c r="D323" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E323" s="2">
         <v>323</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E324" s="1">
+      <c r="D324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E324" s="2">
         <v>324</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="2">
         <v>325</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="2">
         <v>326</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327" s="2">
         <v>327</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="2">
         <v>328</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329" s="2">
         <v>329</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330" s="2">
         <v>330</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331" s="2">
         <v>331</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="2">
         <v>332</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
   <si>
     <t>chassisdef_annihilator_ANH-1A.Description.Details</t>
   </si>
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of the Star League in Exile. The -1A was armed with four Autocannon/10s and four Medium Lasers. While less accurate than the original -2A, the 1A was still a highly destructive and dangerous 'Mech that no MechWarrior looked forward to engaging.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t/>
@@ -54,7 +54,7 @@
   <si>
     <t xml:space="preserve">Still a fearsome and powerful design, where the original Annihilator-1A carries a bevy of powerful autocannons, the -1E instead opts for an all-energy weapon loadout. Four Particle Projection Cannons give the Annihilator-1E a brutal and incredibly powerful punch while the Medium Lasers from the -1A are carried over for in-close protection while increasing the armor protection somewhat to mitigate enemy return fire.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_annihilator_ANH-1E.StockRole</t>
@@ -76,7 +76,7 @@
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_annihilator_ANH-2A.StockRole</t>
@@ -101,7 +101,7 @@
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_annihilator_iic_ANH-IIC.StockRole</t>
@@ -126,7 +126,7 @@
   <si>
     <t xml:space="preserve">The Apollo is designed to be a long range fire support BattleMech. This is accomplished by mounting an engine on the 'Mech that gives it a top speed of only 64.8 kph and eleven and a half tons of armor. The 'Mech was then armed with massive missile launchers which can rain destruction down on an enemy. While the Apollo has less than average speed for a medium 'Mech, if it is employed correctly the Apollo should have nothing to fear from enemy fire; it is fully capable of staying at the edge of the battlefield and laying down suppressive LRM fire.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_apollo_APL-1M.StockRole</t>
@@ -181,7 +181,7 @@
   <si>
     <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.88&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.88&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-1A.StockRole</t>
@@ -209,7 +209,7 @@
   <si>
     <t xml:space="preserve">The 2K Archer was a modification built for House Kurita in 2856, designed to increase its direct firepower capability and give it more staying power on the battlefield once it had run out of ammunition
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-2K.StockRole</t>
@@ -234,7 +234,7 @@
   <si>
     <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-2R.StockRole</t>
@@ -253,7 +253,7 @@
   <si>
     <t xml:space="preserve">The 2Rb variant of the Archer was built for SLDF Royal units starting in 2752. A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-2Rb.StockRole</t>
@@ -272,7 +272,7 @@
   <si>
     <t xml:space="preserve">A another modification made to allow the Archer to defend itself more easily against an enemy that managed to close range with it. Built for House Steiner in 2915
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-2S.StockRole</t>
@@ -291,7 +291,7 @@
   <si>
     <t xml:space="preserve">Carrying a pair of SRM-4s in place of two medium lasers, this was the trademark variant used by the Wolf's Dragoons, which they produced in the assembly plant aboard their space station Hephaestos until its destruction in 3028. It was once stated by Jaime Wolf that all of the Dragoons' Archers were of this variant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-2W.StockRole</t>
@@ -316,7 +316,7 @@
   <si>
     <t xml:space="preserve">The 4M variant of the Archer was built using rediscovered Star League technology. A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-4M.StockRole</t>
@@ -335,7 +335,7 @@
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Archer 5CS was a Comstar prototype rushed into production specifically to outfit units that would be fighting on Tukayyid. Designed to carry as much firepower as possible, a combination of a 280 rated XL Engine, Endo Steel chassis and DHS free up the tonnage need to mount 4 LRM-15’s with an Artemis IV FCS. A pair of Medium Lasers are retained should enemies close on the Archer.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-5CS.StockRole</t>
@@ -363,7 +363,7 @@
   <si>
     <t xml:space="preserve">Built by the GKT Enterprise factory on Satalice for the Free Rasalhague Republic, the 5R was introduced in 3050 and bore similarities to the 2K model of the Archer. It carried a pair of FarFire LRM-15 launchers but mounted two Victory Nickel Alloy ER Large Lasers, one in either arm, in place of the medium lasers. It also linked Artemis IV fire control systems to the launchers and utilized twelve double heat sinks to improve waste heat dissipation. Despite being built around an Endo-Steel chassis, these improvements necessitated a decrease in armor protection by two tons.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-5R.StockRole</t>
@@ -388,7 +388,7 @@
   <si>
     <t xml:space="preserve">The 5S variant of the Archer, built out of Defiance Industries' massive Hesperus II complex in 3050, was the official variant for the Armed Forces of the Federated Commonwealth. The 5S upgraded the engine to an Edasich Motors 280 XL Engine, cutting the engine's weight in half while retaining the same speed profile. The 5S also reduced the LRM-20 launchers to LRM-15s. This saved weight was used to add two Coventry T4H Streak SRM-2 launchers, one in each arm and fed by two tons of reloads in the side torsos. They also upgraded the four medium lasers to Medium Pulse Lasers. Finally, the 'Mech carried a Doering Electronics Glowworm Narc Missile Beacon launcher in its left torso along with one ton of ammo. This allowed the Archer to tag enemy units with a beacon so that friendly 'Mechs could more easily hit the unit with their own missile weapons. All of the ammunition carried by the 5S was protected by CASE.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-5S.StockRole</t>
@@ -410,7 +410,7 @@
   <si>
     <t xml:space="preserve">The 5W was an upgrade of the 2W variant, and was produced for the Wolf's Dragoons by Bowie Industries at Alarion. This was done in an orbital 'Mech repair facility which was converted into a 'Mech assembly line. Introduced in 3050, the 'Mech was upgraded with an XL Engine to save weight and used ten double heat sinks for greater heat dissipation. It retained the two LRM-20 launchers but replaced all other weaponry with one TharHes Blue SRM-4 launchers in each arm and a Doering Electronics Glowworm Narc Missile Beacon launcher in the center torso. The 5W was supplied with four tons of LRM reloads, two tons of SRM reloads, and two tons of Narc reloads, all carried in the CASE-protected side torsos.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-5W.StockRole</t>
@@ -432,7 +432,7 @@
   <si>
     <t xml:space="preserve">The Archer 8L is a prototype chassis designed to provide fire support with 2 Arrow IV Launchers loaded with Incendiary Missiles and the newly developed Guardian ECM and Stealth Armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-8L.StockRole</t>
@@ -454,7 +454,7 @@
   <si>
     <t xml:space="preserve">A Clan-tech retrofit of the standard Star League Defense Force ARC-2R Archer and intended for second-line and solahma troops.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archer_ARC-C.StockRole</t>
@@ -473,7 +473,7 @@
   <si>
     <t xml:space="preserve">Keeping the top speed of the ASN-21 as well as its base weapon load of missiles, the ASN-101 is a rare Federated Suns variant that drops two jump jets and a half ton of armor to mount a trio of Small Lasers, giving the ASN-101 a much better close-in punch compared to its progenitor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_assassin_ASN-101.StockRole</t>
@@ -498,7 +498,7 @@
   <si>
     <t xml:space="preserve">Assassin was designed to complete against the lighter scout mechs like the Wasp and Stinger but is twice as heavy, faster, greater jump range, heavier armor and much more firepower.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_assassin_ASN-21.StockRole</t>
@@ -526,7 +526,7 @@
   <si>
     <t xml:space="preserve">The -23 variant of the Assassin is an upgrade of the original model using Lostech; originally seen as a standardized field modification, in 3067 new production began at Hellespont 'Mech Works. The SRM-2 has been removed to upgrade the Medium Laser to a Medium Pulse Laser and an Artemis IV fire control system has been added for the LRM-5 launcher. Within the CCAF, TDF and MAF it is largely used as a cheap way to rebuild shattered forces and sees service mostly in green and reserve formations. The Capellans in particular use the -23 as a fire-support unit for pursuit and strike lances, though shortages of Artemis munitions means many are forced to use mine-delivery missiles.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_assassin_ASN-23.StockRole</t>
@@ -548,7 +548,7 @@
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M3 is a heavy brawler, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_bullshark_BSK-M3.StockRole</t>
@@ -579,7 +579,7 @@
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_bullshark_BSK-M4.StockRole</t>
@@ -610,7 +610,7 @@
   <si>
     <t xml:space="preserve">The Exterminator is a BattleMech that was designed in 2630 for the most dubious, but necessary, of purposes: Headhunting. Advanced systems allowed it to easily infiltrate enemy lines. Once the Exterminator had breached the enemy's rear, its mission was to find and destroy as much of the enemy's command structure as possible. This mission profile included attacking Mobile Headquarters, field bases and command level officers. Rather than be part of the standard formation, Exterminators were attached to a regimental or higher headquarters unit, often as a fifth member of the command lance itself, before being assigned to individual units.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_exterminator_EXT-4D.StockRole</t>
@@ -632,7 +632,7 @@
   <si>
     <t xml:space="preserve">The Exterminator is a BattleMech that was designed in 2630 for the most dubious, but necessary, of purposes: Headhunting. Advanced systems allowed it to easily infiltrate enemy lines. Once the Exterminator had breached the enemy's rear, its mission was to find and destroy as much of the enemy's command structure as possible. This mission profile included attacking Mobile Headquarters, field bases and command level officers. Rather than be part of the standard formation, Exterminators were attached to a regimental or higher headquarters unit, often as a fifth member of the command lance itself, before being assigned to individual units.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_exterminator_EXT-4Db.StockRole</t>
@@ -654,7 +654,7 @@
   <si>
     <t xml:space="preserve">Entering production in 2519 the FLE-14 Flea was an attempt to create an ultra-light BattleMech. Weighing a mere fifteen tons, it could arguably be regarded as a different 'Mech design than the true Flea. It was capable of a maximum ground speed of nearly 150km/h with a 120 meter jump capability. Its weapons and armor however were very light: Only one ton of armor protected the unit, and the single Medium Laser mounted in the right arm was barely enough to make it a viable battlefield unit.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.94&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.94&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-14.StockRole</t>
@@ -679,7 +679,7 @@
   <si>
     <t xml:space="preserve">An expensive mech that is good against other 20 ton mechs and infantry but not able to stand up to any major threat from larger mechs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.95&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-15.StockRole</t>
@@ -704,7 +704,7 @@
   <si>
     <t xml:space="preserve">Built as part of the Wolf's Dragoons exclusive contract with Earthwerks Incorporated to replenish the Dragoon's losses at the end of the Fourth Succession War, alongside renewed production of original Fleas, the FLE-16 was the first new production model of the extremely rare 'Mech in centuries. The variant remedied the earlier FLE-14's weaknesses by combining incredible speed with additional armor and weaponry on a 20 ton chassis. The engine was upgraded to a GM 180 in order to reach a similar maximum ground speed of nearly 150 km/h. It mounts two Medium Lasers and an Flamer while retaining an armor profile like the earlier FLE-15.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.95&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-16.StockRole</t>
@@ -729,7 +729,7 @@
   <si>
     <t xml:space="preserve">Originally produced exclusively for the Dragoons until the Capellan Confederation acquired the design's blueprints via a Maskirovka raid during the 3040s, the post-Helm Memory Core FLE-17 variant is based on the older FLE-15 model. Since the Dragoons used the Flea in a recon role more than an antipersonnel 'Mech, Earthwerks conceived a new design by incorporating recovered technology. Retaining the design's maximum speed of 97.2 km/h, the addition of an Endo Steelchassis frees up weight for a MASC system that allows the 'Mech's speed to be pushed up to 129.6 km/h in short bursts. The increase of speed is required to ensure survival on the modern battlefield, as the FLE-17 is only clad in a pitiful three tons of Livingston Ceramics armor plating.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-17.StockRole</t>
@@ -754,7 +754,7 @@
   <si>
     <t xml:space="preserve">A very light sniper mech with a very big laser but cannot take a hit.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.95&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-4.StockRole</t>
@@ -776,7 +776,7 @@
   <si>
     <t xml:space="preserve">The Romeo 5000 is built upon a 120-rated Light Fusion Engine and Endo Steel frame, saving weight to carry a center torso mounted Medium Pulse Laser, an SRM-2 in each side torso and twin ER Small Lasers in each arm. Clad in three tons of armor, Romeo 5000 carries two tons of SRM reloads and is fitted with ten double heat sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-R5K.StockRole</t>
@@ -801,7 +801,7 @@
   <si>
     <t xml:space="preserve">A favourite tool of planetary governments through out the Periphery, the Louse is designed for riot suppression. Capable of dispersing riots with lethal and non lethal options, it works well against civilians and lightly armed vehicles while posing no significant threat to actual battlemechs or military grade vehicles. Dual grenade launchers and a mixed laser package provide the bulk of the firepower, whilst a pair of flare launchers provides additional deterrent and can be used defensively in combat. Spall lined armour provides additional protection against infantry grade weapons and a set of sensors designed specifically for peering through cluttered urban environments round out the package. Often deployed as scouts and support forces; this mech is a common sight amongst the pirate bands who find themselves facing it across the battlefield. Not designed for battle, it is nonetheless pressed into service by desperate militias and governments that lack real battlemechs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flea_FLE-RS.StockRole</t>
@@ -826,7 +826,7 @@
   <si>
     <t xml:space="preserve">When the Treaty of Taurus was signed, it established the New Colony Region in co-operation between the Magistracy of Canopus and the Taurian Concordat and also created the Colonial Marshals. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marshal_MHL-X1.StockRole</t>
@@ -854,7 +854,7 @@
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Phoenix Hawk 1bC was a Comstar refit built with damaged Phoenix Hawk 1b’s inherited from the 112th Royal Hussar regiment of the SLDF. Powered by a 270 XL Engine and possessing an Endo Steel chassis, the PHX-1bC is armed with an ER Large Laser and a pair of Medium Lasers. A Narc Beacon and 4 tons of ammo allow the Mech to spot for allied artillery and support assets, while a Flamer gives the Mech some anti infantry capability. The 1b’s CASE and Guardian ECM are retained.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1bC.StockRole</t>
@@ -882,7 +882,7 @@
   <si>
     <t xml:space="preserve">The Royal Phoenix Hawk or Phoenix Hawk Special was an upgraded model of the stable of the SLDF forces, this model was just beginning testing and deployment before the Exodus.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1c.StockRole</t>
@@ -910,7 +910,7 @@
   <si>
     <t xml:space="preserve">The 1D variant of the Phoenix Hawk was commonly used by the forces of House Davion. Introduced in 2856, it removes both of the machine guns and the ammunition and replaces them with two additional heat sinks. While removing a small amount of the 'Mech's short-range firepower and a powerful set of weapons against infantry, the additional heat sinks made the 1D's heat load more manageable.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1D.StockRole</t>
@@ -935,7 +935,7 @@
   <si>
     <t xml:space="preserve">A Blue Shot Weapons special, the Phoenix Hawk 1GS is a custom order variant based on the STR-3G Stinger. Popular among rookie pilots, the 1GS trades range and fire power for increased survivability and an easier heat curve. Built from salvaged PHX-1D’s, the 1GS strips out the XL Engine and extra DHS. The weapons are replaced with a Large Laser and a Small Laser in each arm, the additional range of the ER’s not being needed in the close quarter fighting of the Arena. Both the primary lasers are mounted in gunpods giving the variant its "Gunslinger" nickname.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-1GS.StockRole</t>
@@ -960,7 +960,7 @@
   <si>
     <t xml:space="preserve">Based on the PXH-1, this electronic warfare variant introduced in 2599 drops the machine guns and ammunition in favor of a Guardian ECM Suite and another half-ton of armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-2.StockRole</t>
@@ -982,7 +982,7 @@
   <si>
     <t xml:space="preserve">The Phoenix Hawk 2L was one of the first new mechs to be produced under the Long Road initiative. A compete overhaul designed to be compatible with the myriad PXH-1 variants found throughout the Periphery, the redesign takes advantage of Lushan Industries production license for the new ER Large Laser. Mounting this in place of the original Large Laser, the weapons increased heat is balanced by the inclusion of 2 extra heat sinks; with an Endo steel chassis providing the necessary free wieght. Retaining the medium lasers and the Guardian ECM suite, the 2L is a cheap upgrade for anyone fielding a PXH-1 design. Available for export throughout the Periphery, the only constraint to production is the lack of a production facility for the PXH chassis, though Alliance Mech Works has plans to build a dedicated PHX line should the design prove popular. Until then the current output is limited to in-situ conversions of existing mechs and the restoration of battlefield salvage. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-2L.StockRole</t>
@@ -1007,7 +1007,7 @@
   <si>
     <t xml:space="preserve">The 3D variant of this 'Mech was introduced in 3048, based on the 1D used by Davion forces. It was built out of New Avalon by Archenar BattleMechs as one of a slew of redesigns using recovered lostech. The 'Mech utilized Endo Steel construction techniques and a Extra-Light engine to free up weight and space for a number of improvements, particularly its weaponry. The 'Mech carried a pair of ER Large Lasers and a pair of Medium Pulse Lasers split between both arms. With the machine guns and their ammunition removed, this allowed two additional heat sinks to be added, and all single heat sinks were exchanged for double strength models.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-3D.StockRole</t>
@@ -1029,7 +1029,7 @@
   <si>
     <t xml:space="preserve">The 3K Phoenix Hawk was another upgrade of the design that used rediscovered technologies, built by Alshain Weapons and GKT Enterprises for House Kurita and the Free Rasalhague Republicrespectively. Introduced in 3050, the engine was upgraded to an XL model, with the saved weight used to upgrade the weapons payload on the 'Mech, taking its cues from the 1K variant. Like the PXH-3D model the 3K carries carries two ER large lasers and two medium Lasers. It also carried twelve double heat sinks to manage the additional waste heat, and the eight tons of standard armor were replaced with the same amount of New Samarkand Royal Ferro-Fibrous armor, improving its survivability.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-3K.StockRole</t>
@@ -1051,7 +1051,7 @@
   <si>
     <t xml:space="preserve">The 3M variant of the 'Mech was also introduced in 3048, built by Earthwerks Incorporated from their Keystone factory and using upgrades based on rediscovered Star League technology. First, the internal structure of the 'Mech has been redesigned to utilize a 1A Type7 Endo Steel chassis. The engine was then replaced with a GM 270 XL and the heat sinks were upgraded to double heat sinks. This allowed the weapons payload to be changed extensively, with all of the original weapons being stripped from the chassis. In their place the 'Mech carried two Diverse Optics Sunbeam ER Large Lasers as its primary weapons and two Martell Medium Pulse Lasers for close in work, with one of each mounted in either arm. Finally, a MainFire Point Defense Anti-Missile System replaced the right-arm machine gun, with two tons of both AMS and machine gun reloads carried in the CASE-protected left torso. The electronic systems were also replaced with an Achernar Electronics HID-8 comm system and Federated Hunter target-tracking system.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-3M.StockRole</t>
@@ -1073,7 +1073,7 @@
   <si>
     <t xml:space="preserve">The 3S model of this 'Mech, first deployed in 3042, was another upgrade using rediscovered technology that attempted to make the Phoenix Hawk even more effective for reconnaissance. The engine was upgraded to an ExtraLight version and ten double heat sinks improved heat management. The overall armor protection was increased by one ton and replaced with Lexington Ltd. High Grade Ferro-Fibrous armor. The primary weapon on the 'Mech was a Thunderbolt-12 Large Pulse Laser built into the right arm, though it still retained the two medium lasers and machine guns of the original. Additionally an anti-missile system was mounted on the right arm, with its two tons of ammo (along with two tons of machine gun ammo) protected by CASE in the left torso. Its primary difference from other variants introduced during the time period was the addition of a MASC system, which allowed the 'Mech to reach speeds of up to 129.6 in short bursts.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenix_hawk_PXH-3S.StockRole</t>
@@ -1095,7 +1095,7 @@
   <si>
     <t xml:space="preserve">First introduced by the Terran Hegemony in 2568, the Phoenix Hawk was one of the most well known BattleMechs in the Inner Sphere. The 'Mech began life when Orguss Industries realized that it could reinforce the Stinger chassis to create a larger version, one with the same speed and maneuverability as the Stinger but with superior armor, firepower and electronics. Though not without its own drawbacks, the Phoenix Hawk quickly became the standard by which all other reconnaissance 'Mechs were measured.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenixhawk_PXH-1.StockRole</t>
@@ -1117,7 +1117,7 @@
   <si>
     <t xml:space="preserve">The Royal Phoenix Hawk or Phoenix Hawk Special was an upgraded model of the stable of the SLDF forces.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenixhawk_PXH-1b.StockRole</t>
@@ -1136,7 +1136,7 @@
   <si>
     <t xml:space="preserve">Developed by Clan Goliath Scorpion, the Phoenix Hawk PHX-1-EC was an upgrade of the earlier PHX-1. Designed at the start of the Golden Age, the PHX-1-EC is built around a 270 rated Fusion Core and is armed with an Improved Large Laser. A pair of prototype ER Medium Lasers and an AMS make up the rest of the PHX-1-EC’s weapons.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenixhawk_PXH-1-EC.StockRole</t>
@@ -1158,7 +1158,7 @@
   <si>
     <t xml:space="preserve">The 1K variant was particularly favored by House Kurita, though when it was introduced in 2603 it represented a departure from the traditional thinking of the Phoenix Hawk. By removing all jump jets from the 'Mech, room is freed up to install three additional heat sinks and another one and a half tons of armor. The machine guns and ammunition have also been removed from the design and replaced with a single Small Laser carried in the center torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_phoenixhawk_PXH-1K.StockRole</t>
@@ -1180,7 +1180,7 @@
   <si>
     <t xml:space="preserve">The Rifleman II was an upgrade fielded by the SLDF Royals in 2720, adding twenty tons to its overall mass. The Rifleman II used an Endo Steel structure and an XL Engine, and carried a pair of LB-X Autocannon/10s and Large Pulse Lasers, one in each arm, as well as a pair of Medium Lasers, a Beagle Active Probe, and fourteen Double Heat Sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_ii_RFL-3N-2.StockRole</t>
@@ -1208,7 +1208,7 @@
   <si>
     <t xml:space="preserve">Developed for the Emperor Stefan Amaris's occupying army, the Rifleman III was an experimental prototype which was rushed into service to defend against the invading Star League Defense Force Army led by General Aleksandr Kerensky in 2777. Only a single prototype was produced after years of development, and it was destroyed during the battle for Terra. Used in the role of an ambusher before being destroyed, the 'Mech's Battle ROM would recount that it had downed nine SLDF BattleMechs before it was rendered inoperable by battle damage.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Multi Trac&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_iii_RF2-A.StockRole</t>
@@ -1233,7 +1233,7 @@
   <si>
     <t xml:space="preserve">The first production version of the Rifleman weighed fifty tons and used primitive technology. Each arm carried a single large laser and medium laser. It was protected by eleven and a half tons of Primitive Armor and used a Primitive Engine to reach a top speed of 64km/h. Though it served in the Reunification War, this version of the Rifleman was usually used by militia and second line forces thereafter.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.82&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.82&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-1N.StockRole</t>
@@ -1261,7 +1261,7 @@
   <si>
     <t xml:space="preserve">Introduced in 2556, this version replaced the primitive components with standard armor and engine. The freed space and weight allowed engineers to fit in sixteen heat sinks. The large lasers were removed from the arms and replaced by PPCs, while two more medium lasers were added, one in each side torso. Production of this model continued until the RFL-3N was introduced.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-2N.StockRole</t>
@@ -1283,7 +1283,7 @@
   <si>
     <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3C.StockRole</t>
@@ -1305,7 +1305,7 @@
   <si>
     <t xml:space="preserve">A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3K.StockRole</t>
@@ -1330,7 +1330,7 @@
   <si>
     <t xml:space="preserve">Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3KH.StockRole</t>
@@ -1361,7 +1361,7 @@
   <si>
     <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3N_(c).StockRole</t>
@@ -1380,7 +1380,7 @@
   <si>
     <t xml:space="preserve">The Kell Hounds found the stock RFL-3N to be very lacking, replacing most of its weaponary with tech aquired during the company's initial battles with the Clans. The resulting RFL-3N-KH was a lot more deadly, mounting twin Clan UAC/5s with four Clan Extended Range Medium Lasers and two A-Pods as complimentary weaponary.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3N-KH.StockRole</t>
@@ -1402,7 +1402,7 @@
   <si>
     <t xml:space="preserve">The RFL-3NR brings just some slight changes to the base RFL-3N design. It replaces the two Medium Lasers with a single Small Laser, but instead adds a C3 slave unit, C.A.S.E protection for the AC/5 ammunition and switches to use Double Heat Sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3NR.StockRole</t>
@@ -1424,7 +1424,7 @@
   <si>
     <t xml:space="preserve">A custom variant used by the Wolf Dragoon's that is heavily focused on its offensive capabilities in an attempt to adress the shortcomings of its outdated predecessors. Each arm mounts an UAC/5 and a ER Large Laser making it a deadly surprise for any 'Mech warriors unaware of the differences compared to the stock versions.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3-WDR.StockRole</t>
@@ -1446,7 +1446,7 @@
   <si>
     <t xml:space="preserve">The 4D was one of two variants designed by Hanse Davion; it was intended to compete with the heavier Warhammer. It replaced the autocannon/5s with PPCs and removed the medium lasers, using the freed-up weight to mount an five extra heat sinks. In spite of the extra heat sinks, this model suffered from significant overheat problems.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-4D.StockRole</t>
@@ -1471,13 +1471,16 @@
   <si>
     <t xml:space="preserve">The 4L was an attempt to make the RFL-4D more useful and increase its survivability. The design replaces the PPCs with a number of Lasers and switches to using double heat sinks. The combination of Endo Steel structure and an XL engine also allowed it to carry several tons more of armor. The variant however underperformed on the battlefield and never reached any success.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-4L.StockRole</t>
   </si>
   <si>
     <t>Direct-Fire Support</t>
+  </si>
+  <si>
+    <t>Поддержка с открытых позиций</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-4L.YangsThoughts</t>
@@ -1496,7 +1499,7 @@
   <si>
     <t xml:space="preserve">The RFL-4R uses the combination of Endo Steel structure and Ferro-Fibrous armor to free enough weight to increase the armoring significantly while still allowing the use of two LB-X AC/5s.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-4R.StockRole</t>
@@ -1521,7 +1524,7 @@
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Rifleman 5CS was a Comstar refit designed with the aim of extending the Rifleman’s battlefield endurance. Replacing the original 240 rated Fusion Core with a larger 300 rated XL Engine increased the Mechs speed and allowed for the installation of additional armour. DHS replaced the original SHS, reducing the chronic overheating issues that plagued the Rifleman, while the AC/5’s were upgraded to a pair of UAC/5’s with 2 tons of ammo. The pair of Large Lasers remain, but the 2 Medium Lasers were removed to make space for the UAC ammo.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-5CS.StockRole</t>
@@ -1543,7 +1546,7 @@
   <si>
     <t xml:space="preserve">A recovered-technology version of the RFL-4D, the 5D was introduced in 3050 for the Federated Commonwealth. Based on the earlier 4D, it replaces the PPCs with ER PPC models and restores the original model's medium lasers to the side torsos. A 240-rated XL engine was used to free up weight for the mounting of seventeen double heat sinks and an increase in armor protection to nine tons. Production of this model was taken up by Kallon Industries on Talon, Trellshire Industires on Twycross and Red Devil Industries on Pandora.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-5D.StockRole</t>
@@ -1565,7 +1568,7 @@
   <si>
     <t xml:space="preserve">The 5M is another product of the Gray Death Memory Core technology boon, built by Kallon Industries at Thermopolis for the Free Worlds League. Introduced in 3049, it retained the same energy weapons as the original 3N but replaced the standard autocannons with Imperator Ultra models; though the ammunition load remained a single ton, it was moved to the right torso and protected by CASE. Twelve double heat sinks were mounted and another ton of Kallon Royalstar armor was carried. The free weight for all these changes was created by the use of an Hermes 240 XL Engine. One thing which wasn't replaced however were the Garret comms and targeting systems.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-5M.StockRole</t>
@@ -1587,7 +1590,7 @@
   <si>
     <t xml:space="preserve">A prototype further development of the base Rifleman design created by an Inner Sphere design collective a few years before the Clan invasion. The IIA chassis uses its 20 ton increased carry capacity for a combination of long range energy and ballistic weaponary and uses a C3 slave unit to improve the lance performance.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-IIA.StockRole</t>
@@ -1609,7 +1612,7 @@
   <si>
     <t xml:space="preserve">Designed by the same team as the RFL-IIA, this variant uses a pair of LBX/10 Autocannons, twin ER Large Lasers, two leg mounted LRM-5s and a TAG. It never went beyond early prototype stage, as many of the issues of the original Rifleman was inherited.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-IIB.StockRole</t>
@@ -1637,7 +1640,7 @@
   <si>
     <t xml:space="preserve">The so-called Stag II incorporated a prototype version of the ER PPC that was roughly comparable to the Clan version of the weapon, though it was slightly less destructive. This upgrade of the large laser necessitated removal of the MASC, though the top speed was upgraded to 119 km/h. Additionally, Ferro-Fibrous weave was incorporated into the armor, though at an overall decrease in protection. The SRMs were removed in favor of an additional Medium Laser, two Medium Pulse Lasers, and two Small Lasers.[2] This gave the 'Mech greater battlefield longevity, though the potential for excessive heat buildup was much greater.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stag_ii_ST-24G.StockRole</t>
@@ -1665,7 +1668,7 @@
   <si>
     <t xml:space="preserve">The Stag was built on an Endo Steel frame and powered by an XL Engine. Ten tons of armor provided the 'Mech with the maximum possible protection. The long-range threat from the cavalry 'Mech comes from one ER Large Laser. At close range it is supplemented by paired Medium Lasers and SRM-4s. Two, CASE-protected tons of ammunition gives MechWarriors the flexibility to use different types of munitions, making the Stag a threat to a variety of units. Twelve double heat sinks handles all of the heat generated by the weapons.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stag_ST-14G.StockRole</t>
@@ -1687,7 +1690,7 @@
   <si>
     <t xml:space="preserve">The Stealth is a heavy scout 'Mech that is in use by the Federated Suns and the Lyran Alliance. The 'Mech has a GM 315 XL Engine that allows the Stealth to move at speeds of 118.8 kph and the MASC system on board can push the 'Mech to 151.2 kph in short bursts. This amazing mobility is augmented by jump jets which the Stealth can use to jump up to two hundred and ten meters. The Stealth is also outfitted with a Cyclops-Beagle Sensory Active Probe that the Stealth can use to find hidden enemy units.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stealth_STH-1D.StockRole</t>
@@ -1721,7 +1724,7 @@
   <si>
     <t xml:space="preserve">The predecessor to the original Flea FLE-4 model, the Trooper TP-1R prototype was built in 2475, by Toddlette Industries, on a primitive chassis and maintained ground speeds of nearly 100 kph.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.75&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.75&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_trooper_TP-1R.StockRole</t>
@@ -1746,7 +1749,7 @@
   <si>
     <t xml:space="preserve">The Vulcan is lightly armored at only five tons, though this is typically sufficient when facing infantry forces and its narrow profile makes it a harder target to hit. A cruising speed of 64.8 km/h is enhanced with by six jump jets mounted in the rear of the Vulcan's torso, specially vented to reduce heat build-up in the rear, giving it a jumping range of 180 meters.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-2T.StockRole</t>
@@ -1771,7 +1774,7 @@
   <si>
     <t xml:space="preserve">The VL-2TR replaces the Flamer in the Right Arm and the external Heat Sink with a C3 slave unit in the head, increasing the Vulcans in-lance performance.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-2TR.StockRole</t>
@@ -1796,7 +1799,7 @@
   <si>
     <t xml:space="preserve">One of the most common of the Vulcan's early variants, the 5T was introduced a year after the original model debuted. It removes the Autocannon/2 and replaces it with three Maxum medium lasers, using the mass saved to add two additional tons of armor. The majority of the Federated Suns' Vulcans were 5T models.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-5T.StockRole</t>
@@ -1818,7 +1821,7 @@
   <si>
     <t xml:space="preserve">A further update of the -5T, the -6M uses Endo-Steel structure and an XL engine, drops half a ton of the Machine Gun ammunition and switches to Double Heatsinks. As a result the variant is able to replace the Lasers with 4 Medium Pulse Lasers, add a C3 slave unit, increase the amount of armor, upgrade the rating of the engine core to 280 and add an extra Jump Jet.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-6M.StockRole</t>
@@ -1843,7 +1846,7 @@
   <si>
     <t xml:space="preserve">The 5M Vulcan is an upgrade of the 2T version used by House Marik that makes the 'Mech far more effective in close range combat. The 'Mech uses a Crucis-II Delux Endo Steel chassis and removes the autocannon for a Tronel PPL-20 Large Pulse Laser and also upgrades the Medium Laser to a Tronel XII Medium Pulse Laser. Eleven double heat sinks were also incorporated. This version of the Vulcan began production in 3052 and ceased only with the destruction of Nimakachi's Tematagi plant in 3069.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5M.StockRole</t>
@@ -1868,7 +1871,7 @@
   <si>
     <t xml:space="preserve">The 5S Vulcan is a 3050 upgrade of the 2T version used by House Steiner which replaces the standard fusion engine with an extralight engine and also upgrades the armor to Lexington Ltd. High Grade Ferro-Fibrous with CASE to protect itself from ammunition explosions. The inclusion of MASC enables the 5S to move up to 129 km/h in short bursts. Additionally, the Autocannon/2 has been replaced with an Imperator Ultra Autocannon/5.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5S.StockRole</t>
@@ -1902,7 +1905,7 @@
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_apollo_APL-1M.Description.Details</t>
@@ -1963,7 +1966,7 @@
   <si>
     <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_assassin_ASN-101.Description.Details</t>
@@ -2018,7 +2021,7 @@
   <si>
     <t xml:space="preserve">When the Treaty of Taurus was signed, it established the New Colony Region in co-operation between the Magistracy of Canopus and the Taurian Concordat and also created the Colonial Marshals.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_phoenix_hawk_PXH-1bC.Description.Details</t>
@@ -2085,7 +2088,7 @@
   <si>
     <t xml:space="preserve">The second of two variants designed by Hanse Davion and debuting in 3026, the 3C removes the large lasers and autocannon/5s in order to mount a pair of Autocannon/10s in their place and add an extra ton of armor. Two tons of ammunition for the larger autocannons were carried in the right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_rifleman_RFL-3K.Description.Details</t>
@@ -2107,7 +2110,7 @@
   <si>
     <t xml:space="preserve">A Clan-tech retrofit of the standard Rifleman, the Rifleman C was used by Clan Jade Falcon second-line garrison forces during the invasion. This field modification removed all Inner Sphere weaponry, without altering any structural components of the original RFL-3N, and instead carried two Clan-tech Large Pulse Lasers and LB 5-X ACs split between the arms.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_rifleman_RFL-3N-KH.Description.Details</t>
@@ -2184,7 +2187,15 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M5 is a Juggernaut, built around a 285 rated Fusion Core and armed with paired SRM-6's and AC/10’s. 4 Medium Lasers round out the design."
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>chassisdef_bullshark_BSK-M5.StockRole</t>
+  </si>
+  <si>
+    <t>Джаггернаут</t>
   </si>
   <si>
     <t>chassisdef_bullshark_BSK-M5.YangsThoughts</t>
@@ -2199,6 +2210,11 @@
     <t xml:space="preserve">A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M6 is a fire support design, built around a 285 rated Fusion Core and armed with paired AC/5's and LRM-15's. 4 Medium Lasers round out the design."
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M6 is a fire support design, built around a 285 rated Fusion Core and armed with paired AC/5's and LRM-15's. 4 Medium Lasers round out the design."
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_bullshark_BSK-M6.StockRole</t>
@@ -2247,7 +2263,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2548,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,7 +2581,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2581,7 +2598,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2598,7 +2615,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2615,7 +2632,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2632,7 +2649,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2649,7 +2666,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2666,7 +2683,7 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2683,7 +2700,7 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2700,7 +2717,7 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2717,7 +2734,7 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2734,7 +2751,7 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2751,7 +2768,7 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2768,7 +2785,7 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2785,7 +2802,7 @@
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2802,7 +2819,7 @@
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2819,7 +2836,7 @@
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2836,7 +2853,7 @@
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2853,7 +2870,7 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2870,7 +2887,7 @@
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2887,7 +2904,7 @@
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2904,7 +2921,7 @@
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2921,7 +2938,7 @@
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2938,7 +2955,7 @@
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2955,7 +2972,7 @@
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2972,7 +2989,7 @@
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2989,7 +3006,7 @@
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3006,7 +3023,7 @@
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3023,7 +3040,7 @@
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3040,7 +3057,7 @@
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3057,7 +3074,7 @@
       <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3074,7 +3091,7 @@
       <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3091,7 +3108,7 @@
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3108,7 +3125,7 @@
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3125,7 +3142,7 @@
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3142,7 +3159,7 @@
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3159,7 +3176,7 @@
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -3176,7 +3193,7 @@
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -3193,7 +3210,7 @@
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3210,7 +3227,7 @@
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -3227,7 +3244,7 @@
       <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3244,7 +3261,7 @@
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3261,7 +3278,7 @@
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -3278,7 +3295,7 @@
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3295,7 +3312,7 @@
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3312,7 +3329,7 @@
       <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3329,7 +3346,7 @@
       <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3346,7 +3363,7 @@
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3363,7 +3380,7 @@
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3380,7 +3397,7 @@
       <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3397,7 +3414,7 @@
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3414,7 +3431,7 @@
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3431,7 +3448,7 @@
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3448,7 +3465,7 @@
       <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3465,7 +3482,7 @@
       <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -3482,7 +3499,7 @@
       <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3499,7 +3516,7 @@
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3516,7 +3533,7 @@
       <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3533,7 +3550,7 @@
       <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3550,7 +3567,7 @@
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -3567,7 +3584,7 @@
       <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3584,7 +3601,7 @@
       <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3601,7 +3618,7 @@
       <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3618,7 +3635,7 @@
       <c r="B63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3635,7 +3652,7 @@
       <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3652,7 +3669,7 @@
       <c r="B65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3669,7 +3686,7 @@
       <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3686,7 +3703,7 @@
       <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3703,7 +3720,7 @@
       <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3720,7 +3737,7 @@
       <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3737,7 +3754,7 @@
       <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3754,7 +3771,7 @@
       <c r="B71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3771,7 +3788,7 @@
       <c r="B72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3788,7 +3805,7 @@
       <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3805,7 +3822,7 @@
       <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3822,7 +3839,7 @@
       <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3839,7 +3856,7 @@
       <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3856,7 +3873,7 @@
       <c r="B77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3873,7 +3890,7 @@
       <c r="B78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3890,7 +3907,7 @@
       <c r="B79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3907,7 +3924,7 @@
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3924,7 +3941,7 @@
       <c r="B81" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3941,7 +3958,7 @@
       <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3958,7 +3975,7 @@
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3975,7 +3992,7 @@
       <c r="B84" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3992,7 +4009,7 @@
       <c r="B85" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4009,7 +4026,7 @@
       <c r="B86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4026,7 +4043,7 @@
       <c r="B87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4043,7 +4060,7 @@
       <c r="B88" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4060,7 +4077,7 @@
       <c r="B89" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -4077,7 +4094,7 @@
       <c r="B90" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -4094,7 +4111,7 @@
       <c r="B91" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4111,7 +4128,7 @@
       <c r="B92" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4128,7 +4145,7 @@
       <c r="B93" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -4145,7 +4162,7 @@
       <c r="B94" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4162,7 +4179,7 @@
       <c r="B95" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -4179,7 +4196,7 @@
       <c r="B96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -4196,7 +4213,7 @@
       <c r="B97" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4213,7 +4230,7 @@
       <c r="B98" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4230,7 +4247,7 @@
       <c r="B99" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4247,7 +4264,7 @@
       <c r="B100" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4264,7 +4281,7 @@
       <c r="B101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4281,7 +4298,7 @@
       <c r="B102" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4298,7 +4315,7 @@
       <c r="B103" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4315,7 +4332,7 @@
       <c r="B104" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4332,7 +4349,7 @@
       <c r="B105" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4349,7 +4366,7 @@
       <c r="B106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4366,7 +4383,7 @@
       <c r="B107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4383,7 +4400,7 @@
       <c r="B108" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4400,7 +4417,7 @@
       <c r="B109" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4417,7 +4434,7 @@
       <c r="B110" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4434,7 +4451,7 @@
       <c r="B111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4451,7 +4468,7 @@
       <c r="B112" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4468,7 +4485,7 @@
       <c r="B113" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4485,7 +4502,7 @@
       <c r="B114" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -4502,7 +4519,7 @@
       <c r="B115" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4519,7 +4536,7 @@
       <c r="B116" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4536,7 +4553,7 @@
       <c r="B117" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4553,7 +4570,7 @@
       <c r="B118" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4570,7 +4587,7 @@
       <c r="B119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -4587,7 +4604,7 @@
       <c r="B120" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4604,7 +4621,7 @@
       <c r="B121" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4621,7 +4638,7 @@
       <c r="B122" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -4638,7 +4655,7 @@
       <c r="B123" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -4655,7 +4672,7 @@
       <c r="B124" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -4672,7 +4689,7 @@
       <c r="B125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4689,7 +4706,7 @@
       <c r="B126" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -4706,7 +4723,7 @@
       <c r="B127" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4723,7 +4740,7 @@
       <c r="B128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4740,7 +4757,7 @@
       <c r="B129" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>280</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4757,7 +4774,7 @@
       <c r="B130" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4774,7 +4791,7 @@
       <c r="B131" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -4791,7 +4808,7 @@
       <c r="B132" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -4808,7 +4825,7 @@
       <c r="B133" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -4825,7 +4842,7 @@
       <c r="B134" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -4842,7 +4859,7 @@
       <c r="B135" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -4859,7 +4876,7 @@
       <c r="B136" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -4876,7 +4893,7 @@
       <c r="B137" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -4893,7 +4910,7 @@
       <c r="B138" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -4910,7 +4927,7 @@
       <c r="B139" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -4927,7 +4944,7 @@
       <c r="B140" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -4944,7 +4961,7 @@
       <c r="B141" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -4961,7 +4978,7 @@
       <c r="B142" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -4978,7 +4995,7 @@
       <c r="B143" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4995,7 +5012,7 @@
       <c r="B144" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -5012,7 +5029,7 @@
       <c r="B145" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -5029,7 +5046,7 @@
       <c r="B146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -5046,7 +5063,7 @@
       <c r="B147" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -5063,7 +5080,7 @@
       <c r="B148" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -5080,7 +5097,7 @@
       <c r="B149" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -5097,7 +5114,7 @@
       <c r="B150" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -5114,7 +5131,7 @@
       <c r="B151" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -5131,7 +5148,7 @@
       <c r="B152" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -5148,7 +5165,7 @@
       <c r="B153" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -5165,7 +5182,7 @@
       <c r="B154" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -5182,7 +5199,7 @@
       <c r="B155" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -5199,7 +5216,7 @@
       <c r="B156" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -5216,7 +5233,7 @@
       <c r="B157" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -5233,7 +5250,7 @@
       <c r="B158" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -5250,7 +5267,7 @@
       <c r="B159" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -5267,7 +5284,7 @@
       <c r="B160" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -5284,7 +5301,7 @@
       <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -5301,7 +5318,7 @@
       <c r="B162" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -5318,7 +5335,7 @@
       <c r="B163" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -5335,7 +5352,7 @@
       <c r="B164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -5352,7 +5369,7 @@
       <c r="B165" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -5369,7 +5386,7 @@
       <c r="B166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -5386,7 +5403,7 @@
       <c r="B167" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -5403,7 +5420,7 @@
       <c r="B168" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -5420,7 +5437,7 @@
       <c r="B169" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -5437,7 +5454,7 @@
       <c r="B170" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -5454,7 +5471,7 @@
       <c r="B171" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -5471,7 +5488,7 @@
       <c r="B172" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -5488,7 +5505,7 @@
       <c r="B173" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -5505,7 +5522,7 @@
       <c r="B174" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -5522,7 +5539,7 @@
       <c r="B175" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -5539,7 +5556,7 @@
       <c r="B176" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -5556,7 +5573,7 @@
       <c r="B177" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -5573,7 +5590,7 @@
       <c r="B178" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -5590,7 +5607,7 @@
       <c r="B179" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -5607,7 +5624,7 @@
       <c r="B180" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>383</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -5624,7 +5641,7 @@
       <c r="B181" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -5641,7 +5658,7 @@
       <c r="B182" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -5658,7 +5675,7 @@
       <c r="B183" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -5675,7 +5692,7 @@
       <c r="B184" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -5692,7 +5709,7 @@
       <c r="B185" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -5709,7 +5726,7 @@
       <c r="B186" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -5726,7 +5743,7 @@
       <c r="B187" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -5743,7 +5760,7 @@
       <c r="B188" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -5760,7 +5777,7 @@
       <c r="B189" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>402</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -5777,7 +5794,7 @@
       <c r="B190" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -5794,8 +5811,8 @@
       <c r="B191" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>407</v>
+      <c r="C191" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5806,13 +5823,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5823,13 +5840,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C193" s="3" t="s">
         <v>412</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5840,13 +5857,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5857,13 +5874,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5874,13 +5891,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C196" s="3" t="s">
         <v>419</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5891,12 +5908,12 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -5908,13 +5925,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -5925,13 +5942,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C199" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -5942,12 +5959,12 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -5959,13 +5976,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -5976,13 +5993,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C202" s="3" t="s">
         <v>431</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -5993,12 +6010,12 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -6010,13 +6027,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -6027,13 +6044,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C205" s="3" t="s">
         <v>437</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -6044,12 +6061,12 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -6061,13 +6078,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -6078,13 +6095,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C208" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -6095,13 +6112,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C209" s="3" t="s">
         <v>446</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -6112,13 +6129,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -6129,13 +6146,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C211" s="3" t="s">
         <v>451</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -6146,13 +6163,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C212" s="3" t="s">
         <v>454</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6163,13 +6180,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6180,13 +6197,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C214" s="3" t="s">
         <v>459</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6197,13 +6214,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C215" s="3" t="s">
         <v>454</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6214,13 +6231,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6231,13 +6248,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C217" s="3" t="s">
         <v>465</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6248,13 +6265,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C218" s="3" t="s">
         <v>454</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6265,13 +6282,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6282,13 +6299,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C220" s="3" t="s">
         <v>465</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6299,13 +6316,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C221" s="3" t="s">
         <v>454</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6316,13 +6333,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6333,13 +6350,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C223" s="3" t="s">
         <v>475</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6350,13 +6367,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6367,13 +6384,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6384,13 +6401,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C226" s="3" t="s">
         <v>482</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6401,13 +6418,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6418,13 +6435,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6435,13 +6452,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C229" s="3" t="s">
         <v>489</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6452,13 +6469,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6469,13 +6486,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6486,13 +6503,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C232" s="3" t="s">
         <v>496</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6503,13 +6520,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6520,13 +6537,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6537,13 +6554,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C235" s="3" t="s">
         <v>502</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6554,13 +6571,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6571,13 +6588,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6588,13 +6605,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C238" s="3" t="s">
         <v>509</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6605,13 +6622,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6622,13 +6639,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6639,13 +6656,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C241" s="3" t="s">
         <v>516</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6656,13 +6673,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6673,13 +6690,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6690,12 +6707,12 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -6707,12 +6724,12 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -6724,12 +6741,12 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -6741,13 +6758,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C247" s="3" t="s">
         <v>526</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6758,12 +6775,12 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -6775,12 +6792,12 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -6792,12 +6809,12 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -6809,12 +6826,12 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -6826,12 +6843,12 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -6843,12 +6860,12 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -6860,12 +6877,12 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -6877,12 +6894,12 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -6894,12 +6911,12 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -6911,12 +6928,12 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -6928,12 +6945,12 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -6945,12 +6962,12 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -6962,12 +6979,12 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -6979,12 +6996,12 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -6996,12 +7013,12 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -7013,12 +7030,12 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -7030,13 +7047,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C264" s="3" t="s">
         <v>545</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -7047,12 +7064,12 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -7064,12 +7081,12 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -7081,12 +7098,12 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -7098,12 +7115,12 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -7115,12 +7132,12 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -7132,12 +7149,12 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -7149,12 +7166,12 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -7166,12 +7183,12 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -7183,12 +7200,12 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -7200,12 +7217,12 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -7217,12 +7234,12 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -7234,12 +7251,12 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -7251,12 +7268,12 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -7268,12 +7285,12 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -7285,13 +7302,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C279" s="3" t="s">
         <v>562</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -7302,12 +7319,12 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -7319,12 +7336,12 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -7336,12 +7353,12 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -7353,12 +7370,12 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -7370,12 +7387,12 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -7387,12 +7404,12 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -7404,12 +7421,12 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -7421,12 +7438,12 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -7438,12 +7455,12 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -7455,12 +7472,12 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -7472,12 +7489,12 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -7489,12 +7506,12 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -7506,12 +7523,12 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -7523,12 +7540,12 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -7540,12 +7557,12 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -7557,12 +7574,12 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -7574,12 +7591,12 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -7591,12 +7608,12 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -7608,13 +7625,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C298" s="3" t="s">
         <v>583</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -7625,12 +7642,12 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -7642,12 +7659,12 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -7659,12 +7676,12 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -7676,13 +7693,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C302" s="3" t="s">
         <v>589</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -7693,12 +7710,12 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -7710,12 +7727,12 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -7727,12 +7744,12 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -7744,12 +7761,12 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -7761,12 +7778,12 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -7778,13 +7795,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C308" s="3" t="s">
         <v>412</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -7795,13 +7812,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C309" s="3" t="s">
         <v>419</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -7812,13 +7829,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C310" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -7829,13 +7846,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C311" s="3" t="s">
         <v>431</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>3</v>
@@ -7846,13 +7863,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C312" s="3" t="s">
         <v>437</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -7863,13 +7880,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C313" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -7880,13 +7897,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C314" s="3" t="s">
         <v>451</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -7897,13 +7914,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C315" s="3" t="s">
         <v>459</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -7914,13 +7931,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C316" s="3" t="s">
         <v>465</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -7931,13 +7948,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C317" s="3" t="s">
         <v>465</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>3</v>
@@ -7948,13 +7965,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C318" s="3" t="s">
         <v>475</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -7965,13 +7982,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C319" s="3" t="s">
         <v>482</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -7982,13 +7999,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C320" s="3" t="s">
         <v>489</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -7999,13 +8016,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C321" s="3" t="s">
         <v>496</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -8016,13 +8033,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C322" s="3" t="s">
         <v>502</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -8033,13 +8050,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C323" s="3" t="s">
         <v>509</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -8050,13 +8067,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C324" s="3" t="s">
         <v>516</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -8067,13 +8084,13 @@
     </row>
     <row r="325">
       <c r="A325" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="E325" s="2">
         <v>325</v>
@@ -8081,13 +8098,13 @@
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>150</v>
+      <c r="C326" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="E326" s="2">
         <v>326</v>
@@ -8095,13 +8112,13 @@
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="E327" s="2">
         <v>327</v>
@@ -8109,13 +8126,13 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="E328" s="2">
         <v>328</v>
@@ -8123,13 +8140,13 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>91</v>
+      <c r="C329" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E329" s="2">
         <v>329</v>
@@ -8137,13 +8154,13 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>625</v>
       </c>
       <c r="E330" s="2">
         <v>330</v>
@@ -8151,13 +8168,13 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="E331" s="2">
         <v>331</v>
@@ -8165,13 +8182,13 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="E332" s="2">
         <v>332</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -609,7 +609,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Exterminator is a BattleMech that was designed in 2630 for the most dubious, but necessary, of purposes: Headhunting. Advanced systems allowed it to easily infiltrate enemy lines. Once the Exterminator had breached the enemy's rear, its mission was to find and destroy as much of the enemy's command structure as possible. This mission profile included attacking Mobile Headquarters, field bases and command level officers. Rather than be part of the standard formation, Exterminators were attached to a regimental or higher headquarters unit, often as a fifth member of the command lance itself, before being assigned to individual units.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -631,7 +631,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Exterminator is a BattleMech that was designed in 2630 for the most dubious, but necessary, of purposes: Headhunting. Advanced systems allowed it to easily infiltrate enemy lines. Once the Exterminator had breached the enemy's rear, its mission was to find and destroy as much of the enemy's command structure as possible. This mission profile included attacking Mobile Headquarters, field bases and command level officers. Rather than be part of the standard formation, Exterminators were attached to a regimental or higher headquarters unit, often as a fifth member of the command lance itself, before being assigned to individual units.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2565,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>chassisdef_annihilator_ANH-1A.Description.Details</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Juggernaut &amp; Siege Mech</t>
   </si>
   <si>
+    <t>Осадный мех</t>
+  </si>
+  <si>
     <t>chassisdef_annihilator_ANH-1A.YangsThoughts</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Mechazilla</t>
   </si>
   <si>
+    <t>Мехагодзилла</t>
+  </si>
+  <si>
     <t>chassisdef_annihilator_ANH-2A.YangsThoughts</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
     <t>Clan Mechazilla</t>
   </si>
   <si>
+    <t>Мехагодзилла кланов</t>
+  </si>
+  <si>
     <t>chassisdef_annihilator_iic_ANH-IIC.YangsThoughts</t>
   </si>
   <si>
@@ -300,6 +309,9 @@
     <t>Heavy Artillery and Fire Support</t>
   </si>
   <si>
+    <t>Тяжёлая артиллерия / Поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_archer_ARC-2W.YangsThoughts</t>
   </si>
   <si>
@@ -482,6 +494,9 @@
     <t>Flanker and Assassin</t>
   </si>
   <si>
+    <t>Заход с флангов / Убийца</t>
+  </si>
+  <si>
     <t>chassisdef_assassin_ASN-101.YangsThoughts</t>
   </si>
   <si>
@@ -507,6 +522,9 @@
     <t>Hunter-Killer &amp; Ambusher</t>
   </si>
   <si>
+    <t>Найти и уничтожить</t>
+  </si>
+  <si>
     <t>chassisdef_assassin_ASN-21.YangsThoughts</t>
   </si>
   <si>
@@ -663,6 +681,9 @@
     <t>Ultralight Recon</t>
   </si>
   <si>
+    <t>Ультра лёгкий разведчик</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-14.YangsThoughts</t>
   </si>
   <si>
@@ -688,6 +709,9 @@
     <t>Armed Scout</t>
   </si>
   <si>
+    <t>Боевой разведчик</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-15.YangsThoughts</t>
   </si>
   <si>
@@ -713,6 +737,9 @@
     <t>Hyperfast Recon</t>
   </si>
   <si>
+    <t>Сверхбыстрый разведчик</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-16.YangsThoughts</t>
   </si>
   <si>
@@ -738,6 +765,9 @@
     <t>Light Sniper</t>
   </si>
   <si>
+    <t>Лёгкий снайпер</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-17.YangsThoughts</t>
   </si>
   <si>
@@ -785,6 +815,9 @@
     <t>Light Striker</t>
   </si>
   <si>
+    <t>Лёгкая ударная единица</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-R5K.YangsThoughts</t>
   </si>
   <si>
@@ -810,6 +843,9 @@
     <t>Riot Suppresion</t>
   </si>
   <si>
+    <t>Подавление мятежей</t>
+  </si>
+  <si>
     <t>chassisdef_flea_FLE-RS.YangsThoughts</t>
   </si>
   <si>
@@ -919,6 +955,9 @@
     <t>Scout &amp; Skirmisher</t>
   </si>
   <si>
+    <t>Разведка / Перестрелка</t>
+  </si>
+  <si>
     <t>chassisdef_phoenix_hawk_PXH-1D.YangsThoughts</t>
   </si>
   <si>
@@ -1217,6 +1256,9 @@
     <t>Ambusher</t>
   </si>
   <si>
+    <t>Мех засады</t>
+  </si>
+  <si>
     <t>chassisdef_rifleman_iii_RF2-A.YangsThoughts</t>
   </si>
   <si>
@@ -1314,6 +1356,9 @@
     <t>All-Energy Brawler</t>
   </si>
   <si>
+    <t>Энерголодка</t>
+  </si>
+  <si>
     <t>chassisdef_rifleman_RFL-3K.YangsThoughts</t>
   </si>
   <si>
@@ -1455,6 +1500,9 @@
     <t>Anti-Aircraft &amp; Direct-Fire Support</t>
   </si>
   <si>
+    <t>Противо - воздушная поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_rifleman_RFL-4D.YangsThoughts</t>
   </si>
   <si>
@@ -1508,6 +1556,9 @@
     <t>Long-Range Support</t>
   </si>
   <si>
+    <t>Дальнобойная поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_rifleman_RFL-4R.YangsThoughts</t>
   </si>
   <si>
@@ -1733,6 +1784,9 @@
     <t>Light Harrasser</t>
   </si>
   <si>
+    <t>Преследование</t>
+  </si>
+  <si>
     <t>chassisdef_trooper_TP-1R.YangsThoughts</t>
   </si>
   <si>
@@ -1758,6 +1812,9 @@
     <t>Close Support &amp; Anti Personnel</t>
   </si>
   <si>
+    <t>Противопехотная поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_vulcan_VL-2T.YangsThoughts</t>
   </si>
   <si>
@@ -1783,6 +1840,9 @@
     <t>Close Support</t>
   </si>
   <si>
+    <t>Ближняя поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_vulcan_VL-2TR.YangsThoughts</t>
   </si>
   <si>
@@ -1830,6 +1890,9 @@
     <t>Light Cavalry</t>
   </si>
   <si>
+    <t>Лёгкая кавалерия</t>
+  </si>
+  <si>
     <t>chassisdef_vulcan_VL-6M.YangsThoughts</t>
   </si>
   <si>
@@ -1855,6 +1918,9 @@
     <t>Close Support &amp; Skirmisher</t>
   </si>
   <si>
+    <t>Застрельщик / Поддержка</t>
+  </si>
+  <si>
     <t>chassisdef_vulcan_VL-VT-5M.YangsThoughts</t>
   </si>
   <si>
@@ -1878,6 +1944,9 @@
   </si>
   <si>
     <t>Close Support &amp; Recon</t>
+  </si>
+  <si>
+    <t>Разведка и поддержка</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5S.YangsThoughts</t>
@@ -2565,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2599,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2610,13 +2679,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -2627,13 +2696,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -2644,13 +2713,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -2661,13 +2730,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -2678,13 +2747,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -2695,13 +2764,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -2712,13 +2781,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -2729,13 +2798,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -2746,13 +2815,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -2763,13 +2832,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -2780,13 +2849,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -2797,13 +2866,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -2814,13 +2883,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2831,13 +2900,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2848,13 +2917,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -2865,13 +2934,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -2882,13 +2951,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -2899,13 +2968,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -2916,13 +2985,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -2933,13 +3002,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -2950,13 +3019,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -2967,13 +3036,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -2984,13 +3053,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -3001,13 +3070,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -3018,13 +3087,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -3035,13 +3104,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -3052,13 +3121,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -3069,13 +3138,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -3086,13 +3155,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -3103,13 +3172,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -3120,13 +3189,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -3137,13 +3206,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -3154,13 +3223,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -3171,13 +3240,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -3188,13 +3257,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -3205,13 +3274,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -3222,13 +3291,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -3239,13 +3308,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -3256,13 +3325,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -3273,13 +3342,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -3290,13 +3359,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -3307,13 +3376,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -3324,13 +3393,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -3341,13 +3410,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -3358,13 +3427,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -3375,13 +3444,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -3392,13 +3461,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -3409,13 +3478,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -3426,13 +3495,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -3443,13 +3512,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -3460,13 +3529,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -3477,13 +3546,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -3494,13 +3563,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -3511,13 +3580,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -3528,13 +3597,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -3545,13 +3614,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -3562,13 +3631,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -3579,13 +3648,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -3596,13 +3665,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -3613,13 +3682,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -3630,13 +3699,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -3647,13 +3716,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -3664,13 +3733,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -3681,13 +3750,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -3698,13 +3767,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -3715,13 +3784,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -3732,13 +3801,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -3749,13 +3818,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -3766,13 +3835,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -3783,13 +3852,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -3800,13 +3869,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -3817,13 +3886,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -3834,13 +3903,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -3851,13 +3920,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3868,13 +3937,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -3885,13 +3954,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3902,13 +3971,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3919,13 +3988,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3936,13 +4005,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -3953,13 +4022,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -3970,13 +4039,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -3987,13 +4056,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -4004,13 +4073,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -4021,13 +4090,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -4038,13 +4107,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -4055,13 +4124,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -4072,13 +4141,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -4089,13 +4158,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -4106,13 +4175,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -4123,13 +4192,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -4140,13 +4209,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -4157,13 +4226,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -4174,13 +4243,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -4191,13 +4260,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -4208,13 +4277,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -4225,13 +4294,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -4242,13 +4311,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -4259,13 +4328,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -4276,13 +4345,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -4293,13 +4362,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -4310,13 +4379,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4327,13 +4396,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4344,13 +4413,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4361,13 +4430,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4378,13 +4447,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -4395,13 +4464,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4412,13 +4481,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4429,13 +4498,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -4446,13 +4515,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4463,13 +4532,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4480,13 +4549,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4497,13 +4566,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4514,13 +4583,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4531,13 +4600,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -4548,13 +4617,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4565,13 +4634,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -4582,13 +4651,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4599,13 +4668,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -4616,13 +4685,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -4633,13 +4702,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -4650,13 +4719,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4667,13 +4736,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
@@ -4684,13 +4753,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4701,13 +4770,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -4718,13 +4787,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4735,13 +4804,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4752,13 +4821,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
@@ -4769,13 +4838,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -4786,13 +4855,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
@@ -4803,13 +4872,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -4820,13 +4889,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -4837,13 +4906,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -4854,13 +4923,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -4871,13 +4940,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -4888,13 +4957,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -4905,13 +4974,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -4922,13 +4991,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -4939,13 +5008,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -4956,13 +5025,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -4973,13 +5042,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -4990,13 +5059,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -5007,13 +5076,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -5024,13 +5093,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -5041,13 +5110,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -5058,13 +5127,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -5075,13 +5144,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -5092,13 +5161,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -5109,13 +5178,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -5126,13 +5195,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -5143,13 +5212,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5160,13 +5229,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5177,13 +5246,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5194,13 +5263,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -5211,13 +5280,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5228,13 +5297,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -5245,13 +5314,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -5262,13 +5331,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -5279,13 +5348,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -5296,13 +5365,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -5313,13 +5382,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -5330,13 +5399,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -5347,13 +5416,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -5364,13 +5433,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -5381,13 +5450,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -5398,13 +5467,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -5415,13 +5484,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -5432,13 +5501,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -5449,13 +5518,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -5466,13 +5535,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -5483,13 +5552,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -5500,13 +5569,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -5517,13 +5586,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -5534,13 +5603,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -5551,13 +5620,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -5568,13 +5637,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -5585,13 +5654,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -5602,13 +5671,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -5619,13 +5688,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -5636,13 +5705,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -5653,13 +5722,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -5670,13 +5739,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -5687,13 +5756,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -5704,13 +5773,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -5721,13 +5790,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -5738,13 +5807,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -5755,13 +5824,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -5772,13 +5841,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -5789,13 +5858,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -5806,13 +5875,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5823,13 +5892,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5840,13 +5909,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5857,13 +5926,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5874,13 +5943,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5891,13 +5960,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5908,13 +5977,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -5925,13 +5994,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -5942,13 +6011,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -5959,13 +6028,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -5976,13 +6045,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -5993,13 +6062,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -6010,13 +6079,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -6027,13 +6096,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -6044,13 +6113,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -6061,13 +6130,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -6078,13 +6147,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -6095,13 +6164,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -6112,13 +6181,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -6129,13 +6198,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -6146,13 +6215,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -6163,13 +6232,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6180,13 +6249,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6197,13 +6266,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6214,13 +6283,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6231,13 +6300,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6248,13 +6317,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6265,13 +6334,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6282,13 +6351,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6299,13 +6368,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6316,13 +6385,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C221" s="4" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6333,13 +6402,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6350,13 +6419,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6367,13 +6436,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6384,13 +6453,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6401,13 +6470,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6418,13 +6487,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6435,13 +6504,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6452,13 +6521,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6469,13 +6538,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6486,13 +6555,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6503,13 +6572,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6520,13 +6589,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6537,13 +6606,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6554,13 +6623,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6571,13 +6640,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6588,13 +6657,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6605,13 +6674,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6622,13 +6691,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6639,13 +6708,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6656,13 +6725,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6673,13 +6742,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6690,13 +6759,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6707,7 +6776,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
@@ -6724,13 +6793,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -6741,13 +6810,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -6758,13 +6827,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6775,13 +6844,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -6792,13 +6861,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -6809,13 +6878,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -6826,13 +6895,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -6843,13 +6912,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -6860,13 +6929,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -6877,13 +6946,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -6894,13 +6963,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -6911,13 +6980,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -6928,13 +6997,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -6945,13 +7014,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -6962,13 +7031,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -6979,13 +7048,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -6996,13 +7065,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -7013,13 +7082,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -7030,13 +7099,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -7047,13 +7116,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -7064,13 +7133,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -7081,13 +7150,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -7098,13 +7167,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -7115,13 +7184,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -7132,13 +7201,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -7149,13 +7218,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -7166,13 +7235,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -7183,13 +7252,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
@@ -7200,13 +7269,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -7217,13 +7286,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>3</v>
@@ -7234,13 +7303,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -7251,13 +7320,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
@@ -7268,13 +7337,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -7285,13 +7354,13 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>3</v>
@@ -7302,13 +7371,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -7319,13 +7388,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -7336,13 +7405,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -7353,13 +7422,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -7370,13 +7439,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>3</v>
@@ -7387,13 +7456,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>3</v>
@@ -7404,13 +7473,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>3</v>
@@ -7421,13 +7490,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>3</v>
@@ -7438,13 +7507,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>3</v>
@@ -7455,13 +7524,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -7472,13 +7541,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -7489,13 +7558,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -7506,13 +7575,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -7523,13 +7592,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
@@ -7540,13 +7609,13 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>3</v>
@@ -7557,13 +7626,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -7574,13 +7643,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -7591,13 +7660,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -7608,13 +7677,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -7625,13 +7694,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -7642,13 +7711,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>3</v>
@@ -7659,13 +7728,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
@@ -7676,13 +7745,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -7693,13 +7762,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -7710,13 +7779,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -7727,13 +7796,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -7744,13 +7813,13 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>3</v>
@@ -7761,13 +7830,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>3</v>
@@ -7778,13 +7847,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -7795,13 +7864,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -7812,13 +7881,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -7829,13 +7898,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -7846,13 +7915,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>3</v>
@@ -7863,13 +7932,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -7880,13 +7949,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -7897,13 +7966,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -7914,13 +7983,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -7931,13 +8000,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -7948,13 +8017,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>3</v>
@@ -7965,13 +8034,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -7982,13 +8051,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -7999,13 +8068,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -8016,13 +8085,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -8033,13 +8102,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -8050,13 +8119,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -8067,13 +8136,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -8084,13 +8153,13 @@
     </row>
     <row r="325">
       <c r="A325" s="3" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="E325" s="2">
         <v>325</v>
@@ -8098,13 +8167,13 @@
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="E326" s="2">
         <v>326</v>
@@ -8112,13 +8181,13 @@
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="E327" s="2">
         <v>327</v>
@@ -8126,13 +8195,13 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="E328" s="2">
         <v>328</v>
@@ -8140,13 +8209,13 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E329" s="2">
         <v>329</v>
@@ -8154,13 +8223,13 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="E330" s="2">
         <v>330</v>
@@ -8168,13 +8237,13 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="E331" s="2">
         <v>331</v>
@@ -8182,13 +8251,13 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="E332" s="2">
         <v>332</v>
